--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/8_455-55R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/8_455-55R22.xlsx
@@ -689,70 +689,70 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.3786520299737919</v>
+        <v>0.3239807807846385</v>
       </c>
       <c r="E2">
-        <v>0.1421951288996609</v>
+        <v>0.1271945682126572</v>
       </c>
       <c r="F2">
-        <v>0.07063998213772633</v>
+        <v>0.06764432350696824</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.04627779842416825</v>
+        <v>0.04736941572801997</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03119991231257551</v>
+        <v>0.03482116660518383</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.00441389211718877</v>
+        <v>0.01252907261180858</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.01898932720334994</v>
+        <v>0.02465916758541737</v>
       </c>
       <c r="O2">
-        <v>0.07887679305131914</v>
+        <v>0.07449923370833864</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.007235373117950392</v>
       </c>
       <c r="Q2">
-        <v>0.04378241319296176</v>
+        <v>0.04529268459297379</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.002951333285256535</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>0.08440704245533479</v>
+        <v>0.07910166582112993</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.007423882249149147</v>
       </c>
       <c r="V2">
         <v>0</v>
       </c>
       <c r="W2">
-        <v>0.01350013612711985</v>
+        <v>0.02009090539019987</v>
       </c>
       <c r="X2">
-        <v>0.02031140058832637</v>
+        <v>0.02575943496179717</v>
       </c>
       <c r="Y2">
-        <v>0.004321588536640657</v>
+        <v>0.01245225492562398</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -761,13 +761,13 @@
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>0.0067816850330935</v>
       </c>
       <c r="AC2">
-        <v>0.01175786848274584</v>
+        <v>0.01864094030368467</v>
       </c>
       <c r="AD2">
-        <v>0.03430571113358452</v>
+        <v>0.03740590143094085</v>
       </c>
       <c r="AE2">
         <v>0</v>
@@ -776,13 +776,13 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>0.001687774489445241</v>
       </c>
       <c r="AH2">
         <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.01636897536350555</v>
+        <v>0.02247843565572275</v>
       </c>
       <c r="AJ2">
         <v>0</v>
@@ -802,58 +802,58 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.06604996764108562</v>
+        <v>0.06694808345281165</v>
       </c>
       <c r="F3">
-        <v>0.03959899280803546</v>
+        <v>0.03888452072117945</v>
       </c>
       <c r="G3">
-        <v>0.3163463105876501</v>
+        <v>0.3325037828594885</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.01532673935370118</v>
+        <v>0.01313250546453648</v>
       </c>
       <c r="J3">
-        <v>0.06570371779412831</v>
+        <v>0.06658072442872143</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.04353645671364749</v>
+        <v>0.04306203274166699</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.002948853664019736</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.005055126392079109</v>
+        <v>0.002234681980792773</v>
       </c>
       <c r="P3">
-        <v>0.07586507292420286</v>
+        <v>0.07736156819463554</v>
       </c>
       <c r="Q3">
-        <v>0.1033923577136883</v>
+        <v>0.1065670582908259</v>
       </c>
       <c r="R3">
-        <v>0.00869153922143054</v>
+        <v>0.006092789298149751</v>
       </c>
       <c r="S3">
-        <v>0.02957293137805114</v>
+        <v>0.02824721885735555</v>
       </c>
       <c r="T3">
-        <v>0.1051862170878649</v>
+        <v>0.108470280587799</v>
       </c>
       <c r="U3">
-        <v>0.001433761031021667</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.06461796735095107</v>
+        <v>0.0654287810366416</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.01115208998889177</v>
+        <v>0.008703347935509868</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.003942713973836958</v>
+        <v>0.001054451162086672</v>
       </c>
       <c r="AB3">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.002964398033183597</v>
+        <v>1.649203410864918E-05</v>
       </c>
       <c r="AE3">
-        <v>0.02527703757120627</v>
+        <v>0.02368942519955109</v>
       </c>
       <c r="AF3">
-        <v>0.01333774877132388</v>
+        <v>0.01102225575413915</v>
       </c>
       <c r="AG3">
         <v>0</v>
@@ -909,64 +909,64 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2394341149645782</v>
+        <v>0.2551816519185202</v>
       </c>
       <c r="E4">
-        <v>0.09650293452196865</v>
+        <v>0.09955946581077767</v>
       </c>
       <c r="F4">
-        <v>0.06057467339809788</v>
+        <v>0.06044109764343711</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.04298768301654452</v>
+        <v>0.04129254040240796</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06825649789047293</v>
+        <v>0.06880499918750511</v>
       </c>
       <c r="K4">
-        <v>0.005062553632330828</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.002963686892839475</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.04013065549858562</v>
+        <v>0.03818183448968889</v>
       </c>
       <c r="O4">
-        <v>0.08998728146303257</v>
+        <v>0.09246528125418702</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.1449319240493028</v>
+        <v>0.1522885148390885</v>
       </c>
       <c r="R4">
-        <v>0.01403810754006961</v>
+        <v>0.009772502517119057</v>
       </c>
       <c r="S4">
-        <v>0.01391953056356904</v>
+        <v>0.00964339696962465</v>
       </c>
       <c r="T4">
-        <v>0.1435835871195956</v>
+        <v>0.1508204576946568</v>
       </c>
       <c r="U4">
-        <v>0.006174885208059629</v>
+        <v>0.001211096633747395</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0.00264811392881924</v>
+        <v>0</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.01600602850770448</v>
+        <v>0.01191515719975893</v>
       </c>
       <c r="AE4">
         <v>0</v>
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.01279774180442921</v>
+        <v>0.008422003439480758</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -1019,28 +1019,28 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2833614872253823</v>
+        <v>0.2914862880220755</v>
       </c>
       <c r="E5">
-        <v>0.1230702783450254</v>
+        <v>0.125395016852495</v>
       </c>
       <c r="F5">
-        <v>0.0294239123375672</v>
+        <v>0.02836010096886674</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.06560964467843743</v>
+        <v>0.06585519707974183</v>
       </c>
       <c r="I5">
-        <v>0.002054172577870518</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.003365338340513393</v>
+        <v>0.001358609681420119</v>
       </c>
       <c r="K5">
-        <v>0.01021345704162382</v>
+        <v>0.008454524349058471</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1049,37 +1049,37 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.0458274176114216</v>
+        <v>0.04535715939522733</v>
       </c>
       <c r="O5">
-        <v>0.0644019092798072</v>
+        <v>0.06460376034159405</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.125876042011845</v>
+        <v>0.1283023057629638</v>
       </c>
       <c r="R5">
-        <v>0.00754288898017861</v>
+        <v>0.00568732303359897</v>
       </c>
       <c r="S5">
-        <v>0.05184732908911848</v>
+        <v>0.05159489854912768</v>
       </c>
       <c r="T5">
-        <v>0.1358530968195374</v>
+        <v>0.1386403756241442</v>
       </c>
       <c r="U5">
-        <v>0.02129232193505377</v>
+        <v>0.01993427277767811</v>
       </c>
       <c r="V5">
         <v>0</v>
       </c>
       <c r="W5">
-        <v>0.006000031378893573</v>
+        <v>0.00408863785291415</v>
       </c>
       <c r="X5">
-        <v>0.003828282989144883</v>
+        <v>0.001838305765250589</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.0204323893585793</v>
+        <v>0.01904322394384353</v>
       </c>
       <c r="AJ5">
         <v>0</v>
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2544969714732909</v>
+        <v>0.2451825388406494</v>
       </c>
       <c r="E6">
-        <v>0.006179699233415971</v>
+        <v>0.008886669021901387</v>
       </c>
       <c r="F6">
-        <v>0.1720919870335821</v>
+        <v>0.1667669002507915</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.05466912061646601</v>
+        <v>0.05502864657893298</v>
       </c>
       <c r="I6">
-        <v>0.02465759895508065</v>
+        <v>0.0264700265860766</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.04142698947590744</v>
+        <v>0.04242758637926414</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1159,28 +1159,28 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.02690239920415287</v>
+        <v>0.02860615277109468</v>
       </c>
       <c r="O6">
-        <v>0.050303326311142</v>
+        <v>0.05087420676280239</v>
       </c>
       <c r="P6">
-        <v>0.06867270192779365</v>
+        <v>0.06835429403265193</v>
       </c>
       <c r="Q6">
-        <v>0.05719606680025034</v>
+        <v>0.05743325960120264</v>
       </c>
       <c r="R6">
-        <v>0.009313720437156475</v>
+        <v>0.01186896767429993</v>
       </c>
       <c r="S6">
-        <v>0.1337423134067492</v>
+        <v>0.1302737904273081</v>
       </c>
       <c r="T6">
-        <v>0.04030382177975714</v>
+        <v>0.04135879287440566</v>
       </c>
       <c r="U6">
-        <v>0.05243959528163469</v>
+        <v>0.05290705582721118</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -1189,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="X6">
-        <v>0.006961562983219855</v>
+        <v>0.009630681603761527</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>0.0003132538329019478</v>
       </c>
       <c r="AA6">
         <v>0</v>
@@ -1207,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.0006421250804007732</v>
+        <v>0.003617176934743937</v>
       </c>
       <c r="AE6">
         <v>0</v>
@@ -1239,13 +1239,13 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.3012691827331498</v>
+        <v>0.3122396859037459</v>
       </c>
       <c r="E7">
-        <v>0.06332205815083285</v>
+        <v>0.0637507809906534</v>
       </c>
       <c r="F7">
-        <v>0.2294378396405677</v>
+        <v>0.2372259961403403</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.08872323200987936</v>
+        <v>0.09027730400210486</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1263,16 +1263,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.004865456447410015</v>
+        <v>0.002704374282766489</v>
       </c>
       <c r="M7">
-        <v>0.001208906001268053</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0.02770374421311687</v>
+        <v>0.02655446756274351</v>
       </c>
       <c r="O7">
-        <v>0.0733851138951306</v>
+        <v>0.07425966066873033</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1284,40 +1284,40 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0.003614911450791936</v>
+        <v>0.001398426344544308</v>
       </c>
       <c r="T7">
-        <v>0.02917065407057743</v>
+        <v>0.02808636598230392</v>
       </c>
       <c r="U7">
-        <v>0.002275811309717805</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>0.007086242644721186</v>
+        <v>0.005023548053765584</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>0.05584780364008685</v>
+        <v>0.05594539430368589</v>
       </c>
       <c r="Y7">
-        <v>0.0002500357908064726</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>0.04238938010163894</v>
+        <v>0.04189072172549901</v>
       </c>
       <c r="AA7">
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.003933628921291183</v>
+        <v>0.001731263967020517</v>
       </c>
       <c r="AC7">
-        <v>0.009306237723661572</v>
+        <v>0.007341895657447223</v>
       </c>
       <c r="AD7">
-        <v>0.0303582436846821</v>
+        <v>0.02932656942335429</v>
       </c>
       <c r="AE7">
         <v>0</v>
@@ -1326,10 +1326,10 @@
         <v>0</v>
       </c>
       <c r="AG7">
-        <v>0.004506724690801683</v>
+        <v>0.002329749619772017</v>
       </c>
       <c r="AH7">
-        <v>0.02134479287986747</v>
+        <v>0.01991379537152251</v>
       </c>
       <c r="AI7">
         <v>0</v>
@@ -1349,70 +1349,70 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2558249994800285</v>
+        <v>0.2812869786318517</v>
       </c>
       <c r="E8">
-        <v>0.114552373351079</v>
+        <v>0.1218144836149892</v>
       </c>
       <c r="F8">
-        <v>0.08634877839311524</v>
+        <v>0.08997747612362901</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.03972869963367733</v>
+        <v>0.03735142618481001</v>
       </c>
       <c r="I8">
-        <v>0.05985330009191785</v>
+        <v>0.06006863852971071</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.006640021449820245</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.01680859541549258</v>
+        <v>0.01147857094118945</v>
       </c>
       <c r="N8">
-        <v>0.1357851390302899</v>
+        <v>0.1457826238821736</v>
       </c>
       <c r="O8">
-        <v>0.07155384156221543</v>
+        <v>0.07327653727446451</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.01980800873349787</v>
+        <v>0.01486439265708584</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>0.07252574550412237</v>
+        <v>0.07437364965058152</v>
       </c>
       <c r="T8">
-        <v>0.06842245249174013</v>
+        <v>0.06974173763478471</v>
       </c>
       <c r="U8">
-        <v>0.009451159740475527</v>
+        <v>0.00317329159464369</v>
       </c>
       <c r="V8">
         <v>0</v>
       </c>
       <c r="W8">
-        <v>0.009088782807343633</v>
+        <v>0.002764230368512354</v>
       </c>
       <c r="X8">
-        <v>0.009821959675541253</v>
+        <v>0.003591860941142903</v>
       </c>
       <c r="Y8">
-        <v>0.001245076771581619</v>
+        <v>0</v>
       </c>
       <c r="Z8">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="AD8">
-        <v>0.01201290649135557</v>
+        <v>0.006065063037975464</v>
       </c>
       <c r="AE8">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="AG8">
-        <v>0.01052815937670603</v>
+        <v>0.004389038932455347</v>
       </c>
       <c r="AH8">
         <v>0</v>
@@ -1459,25 +1459,25 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.3479566098644447</v>
+        <v>0.3838885392138564</v>
       </c>
       <c r="E9">
-        <v>0.09380073735079537</v>
+        <v>0.09843779556631217</v>
       </c>
       <c r="F9">
-        <v>0.1339337502160114</v>
+        <v>0.1435124902955364</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.01079854252789927</v>
+        <v>0.005215325425270654</v>
       </c>
       <c r="I9">
-        <v>0.09715710041420136</v>
+        <v>0.1022074363104934</v>
       </c>
       <c r="J9">
-        <v>0.006154989784036289</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1486,28 +1486,28 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.01710591188936773</v>
+        <v>0.0122993375194402</v>
       </c>
       <c r="N9">
-        <v>0.03771651290048194</v>
+        <v>0.03544777523783059</v>
       </c>
       <c r="O9">
-        <v>0.04766899144135536</v>
+        <v>0.04662572824962247</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.0458798306895781</v>
+        <v>0.04461626349852809</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>0.02740243312329977</v>
+        <v>0.0238636960925469</v>
       </c>
       <c r="T9">
-        <v>0.05286551203703312</v>
+        <v>0.05246210989111429</v>
       </c>
       <c r="U9">
         <v>0</v>
@@ -1519,13 +1519,13 @@
         <v>0</v>
       </c>
       <c r="X9">
-        <v>0.01299219703325387</v>
+        <v>0.007679090293916865</v>
       </c>
       <c r="Y9">
-        <v>0.0225589218019334</v>
+        <v>0.01842379067200589</v>
       </c>
       <c r="Z9">
-        <v>0.009701332677963878</v>
+        <v>0.003983013283497702</v>
       </c>
       <c r="AA9">
         <v>0</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="AD9">
-        <v>0.02398353292511377</v>
+        <v>0.02002381785413822</v>
       </c>
       <c r="AE9">
         <v>0</v>
@@ -1546,13 +1546,13 @@
         <v>0</v>
       </c>
       <c r="AG9">
-        <v>0.00499834797670484</v>
+        <v>0</v>
       </c>
       <c r="AH9">
         <v>0</v>
       </c>
       <c r="AI9">
-        <v>0.007324745346526059</v>
+        <v>0.00131379059588963</v>
       </c>
       <c r="AJ9">
         <v>0</v>
@@ -1572,13 +1572,13 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1206198647699611</v>
+        <v>0.1207714179212137</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.3201235049755429</v>
+        <v>0.3207643331814452</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1587,28 +1587,28 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.06930787488404261</v>
+        <v>0.06933358734071071</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.002654273540402152</v>
+        <v>0.002516520586582516</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.05576107298705538</v>
+        <v>0.05575356242968903</v>
       </c>
       <c r="O10">
-        <v>0.048880028575729</v>
+        <v>0.04885564251986584</v>
       </c>
       <c r="P10">
-        <v>0.1226009718756352</v>
+        <v>0.1227573836163671</v>
       </c>
       <c r="Q10">
-        <v>0.02072919102145881</v>
+        <v>0.02063576611212607</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -1617,13 +1617,13 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>0.02772760916006481</v>
+        <v>0.02765134760381024</v>
       </c>
       <c r="U10">
-        <v>0.0001439095256458173</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>0.0252881234372909</v>
+        <v>0.025205879135513</v>
       </c>
       <c r="W10">
         <v>0</v>
@@ -1632,13 +1632,13 @@
         <v>0</v>
       </c>
       <c r="Y10">
-        <v>0.04875534223715938</v>
+        <v>0.04873065039281509</v>
       </c>
       <c r="Z10">
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>0.03416767223201488</v>
+        <v>0.03410720468437203</v>
       </c>
       <c r="AB10">
         <v>0</v>
@@ -1650,19 +1650,19 @@
         <v>0</v>
       </c>
       <c r="AE10">
-        <v>0.03918124625389892</v>
+        <v>0.03913307430497807</v>
       </c>
       <c r="AF10">
-        <v>0.01526844590668809</v>
+        <v>0.01516162872861428</v>
       </c>
       <c r="AG10">
         <v>0</v>
       </c>
       <c r="AH10">
-        <v>0.009801041543497905</v>
+        <v>0.009680815765130704</v>
       </c>
       <c r="AI10">
-        <v>0.03898982707391214</v>
+        <v>0.03894118567676643</v>
       </c>
       <c r="AJ10">
         <v>0</v>
@@ -1679,28 +1679,28 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.01426140367857939</v>
+        <v>0.01507062493172911</v>
       </c>
       <c r="E11">
-        <v>0.3706999850232947</v>
+        <v>0.3660052232980124</v>
       </c>
       <c r="F11">
-        <v>0.1408181869154381</v>
+        <v>0.139673168596337</v>
       </c>
       <c r="G11">
-        <v>0.05385669114851131</v>
+        <v>0.05405449770171905</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.01490853280700838</v>
+        <v>0.01570776134922798</v>
       </c>
       <c r="J11">
-        <v>0.07670178972894481</v>
+        <v>0.07654683134505473</v>
       </c>
       <c r="K11">
-        <v>0.02150654063150259</v>
+        <v>0.0222038853579451</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1712,16 +1712,16 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.03656037657889585</v>
+        <v>0.03702526595075251</v>
       </c>
       <c r="P11">
-        <v>0.06970250916632589</v>
+        <v>0.06965563089243003</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
       <c r="R11">
-        <v>0.07096201291294417</v>
+        <v>0.07089568588252902</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -1730,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>0.08959169379879821</v>
+        <v>0.08923769463675654</v>
       </c>
       <c r="V11">
         <v>0</v>
@@ -1739,13 +1739,13 @@
         <v>0</v>
       </c>
       <c r="X11">
-        <v>0.006940117850084848</v>
+        <v>0.007862391490628349</v>
       </c>
       <c r="Y11">
-        <v>0.003544200646173056</v>
+        <v>0.004518912691156334</v>
       </c>
       <c r="Z11">
-        <v>0.01756553875735742</v>
+        <v>0.01832373886918338</v>
       </c>
       <c r="AA11">
         <v>0</v>
@@ -1760,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="AE11">
-        <v>0.01238042035614131</v>
+        <v>0.01321868700653831</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1912,97 +1912,97 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.3786520299737919</v>
+        <v>0.3239807807846385</v>
       </c>
       <c r="E2">
-        <v>0.5208471588734528</v>
+        <v>0.4511753489972957</v>
       </c>
       <c r="F2">
-        <v>0.5914871410111792</v>
+        <v>0.518819672504264</v>
       </c>
       <c r="G2">
-        <v>0.5914871410111792</v>
+        <v>0.518819672504264</v>
       </c>
       <c r="H2">
-        <v>0.6377649394353474</v>
+        <v>0.566189088232284</v>
       </c>
       <c r="I2">
-        <v>0.6377649394353474</v>
+        <v>0.566189088232284</v>
       </c>
       <c r="J2">
-        <v>0.6689648517479229</v>
+        <v>0.6010102548374678</v>
       </c>
       <c r="K2">
-        <v>0.6689648517479229</v>
+        <v>0.6010102548374678</v>
       </c>
       <c r="L2">
-        <v>0.6733787438651117</v>
+        <v>0.6135393274492764</v>
       </c>
       <c r="M2">
-        <v>0.6733787438651117</v>
+        <v>0.6135393274492764</v>
       </c>
       <c r="N2">
-        <v>0.6923680710684615</v>
+        <v>0.6381984950346938</v>
       </c>
       <c r="O2">
-        <v>0.7712448641197807</v>
+        <v>0.7126977287430325</v>
       </c>
       <c r="P2">
-        <v>0.7712448641197807</v>
+        <v>0.7199331018609829</v>
       </c>
       <c r="Q2">
-        <v>0.8150272773127424</v>
+        <v>0.7652257864539567</v>
       </c>
       <c r="R2">
-        <v>0.8150272773127424</v>
+        <v>0.7681771197392132</v>
       </c>
       <c r="S2">
-        <v>0.8150272773127424</v>
+        <v>0.7681771197392132</v>
       </c>
       <c r="T2">
-        <v>0.8994343197680772</v>
+        <v>0.8472787855603432</v>
       </c>
       <c r="U2">
-        <v>0.8994343197680772</v>
+        <v>0.8547026678094923</v>
       </c>
       <c r="V2">
-        <v>0.8994343197680772</v>
+        <v>0.8547026678094923</v>
       </c>
       <c r="W2">
-        <v>0.9129344558951971</v>
+        <v>0.8747935731996922</v>
       </c>
       <c r="X2">
-        <v>0.9332458564835234</v>
+        <v>0.9005530081614894</v>
       </c>
       <c r="Y2">
-        <v>0.9375674450201641</v>
+        <v>0.9130052630871134</v>
       </c>
       <c r="Z2">
-        <v>0.9375674450201641</v>
+        <v>0.9130052630871134</v>
       </c>
       <c r="AA2">
-        <v>0.9375674450201641</v>
+        <v>0.9130052630871134</v>
       </c>
       <c r="AB2">
-        <v>0.9375674450201641</v>
+        <v>0.9197869481202069</v>
       </c>
       <c r="AC2">
-        <v>0.9493253135029099</v>
+        <v>0.9384278884238916</v>
       </c>
       <c r="AD2">
-        <v>0.9836310246364944</v>
+        <v>0.9758337898548324</v>
       </c>
       <c r="AE2">
-        <v>0.9836310246364944</v>
+        <v>0.9758337898548324</v>
       </c>
       <c r="AF2">
-        <v>0.9836310246364944</v>
+        <v>0.9758337898548324</v>
       </c>
       <c r="AG2">
-        <v>0.9836310246364944</v>
+        <v>0.9775215643442776</v>
       </c>
       <c r="AH2">
-        <v>0.9836310246364944</v>
+        <v>0.9775215643442776</v>
       </c>
       <c r="AI2">
         <v>1</v>
@@ -2025,100 +2025,100 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.06604996764108562</v>
+        <v>0.06694808345281165</v>
       </c>
       <c r="F3">
-        <v>0.1056489604491211</v>
+        <v>0.1058326041739911</v>
       </c>
       <c r="G3">
-        <v>0.4219952710367711</v>
+        <v>0.4383363870334795</v>
       </c>
       <c r="H3">
-        <v>0.4219952710367711</v>
+        <v>0.4383363870334795</v>
       </c>
       <c r="I3">
-        <v>0.4373220103904723</v>
+        <v>0.451468892498016</v>
       </c>
       <c r="J3">
-        <v>0.5030257281846007</v>
+        <v>0.5180496169267375</v>
       </c>
       <c r="K3">
-        <v>0.5030257281846007</v>
+        <v>0.5180496169267375</v>
       </c>
       <c r="L3">
-        <v>0.5465621848982481</v>
+        <v>0.5611116496684044</v>
       </c>
       <c r="M3">
-        <v>0.5465621848982481</v>
+        <v>0.5611116496684044</v>
       </c>
       <c r="N3">
-        <v>0.5495110385622679</v>
+        <v>0.5611116496684044</v>
       </c>
       <c r="O3">
-        <v>0.554566164954347</v>
+        <v>0.5633463316491972</v>
       </c>
       <c r="P3">
-        <v>0.6304312378785498</v>
+        <v>0.6407078998438328</v>
       </c>
       <c r="Q3">
-        <v>0.7338235955922381</v>
+        <v>0.7472749581346587</v>
       </c>
       <c r="R3">
-        <v>0.7425151348136686</v>
+        <v>0.7533677474328084</v>
       </c>
       <c r="S3">
-        <v>0.7720880661917198</v>
+        <v>0.781614966290164</v>
       </c>
       <c r="T3">
-        <v>0.8772742832795847</v>
+        <v>0.890085246877963</v>
       </c>
       <c r="U3">
-        <v>0.8787080443106063</v>
+        <v>0.890085246877963</v>
       </c>
       <c r="V3">
-        <v>0.9433260116615574</v>
+        <v>0.9555140279146046</v>
       </c>
       <c r="W3">
-        <v>0.9433260116615574</v>
+        <v>0.9555140279146046</v>
       </c>
       <c r="X3">
-        <v>0.9433260116615574</v>
+        <v>0.9555140279146046</v>
       </c>
       <c r="Y3">
-        <v>0.9544781016504491</v>
+        <v>0.9642173758501145</v>
       </c>
       <c r="Z3">
-        <v>0.9544781016504491</v>
+        <v>0.9642173758501145</v>
       </c>
       <c r="AA3">
-        <v>0.958420815624286</v>
+        <v>0.9652718270122012</v>
       </c>
       <c r="AB3">
-        <v>0.958420815624286</v>
+        <v>0.9652718270122012</v>
       </c>
       <c r="AC3">
-        <v>0.958420815624286</v>
+        <v>0.9652718270122012</v>
       </c>
       <c r="AD3">
-        <v>0.9613852136574697</v>
+        <v>0.9652883190463099</v>
       </c>
       <c r="AE3">
-        <v>0.9866622512286759</v>
+        <v>0.9889777442458609</v>
       </c>
       <c r="AF3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AG3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AH3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AI3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AJ3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:36">
@@ -2132,97 +2132,97 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2394341149645782</v>
+        <v>0.2551816519185202</v>
       </c>
       <c r="E4">
-        <v>0.3359370494865468</v>
+        <v>0.3547411177292979</v>
       </c>
       <c r="F4">
-        <v>0.3965117228846447</v>
+        <v>0.415182215372735</v>
       </c>
       <c r="G4">
-        <v>0.3965117228846447</v>
+        <v>0.415182215372735</v>
       </c>
       <c r="H4">
-        <v>0.4394994059011892</v>
+        <v>0.456474755775143</v>
       </c>
       <c r="I4">
-        <v>0.4394994059011892</v>
+        <v>0.456474755775143</v>
       </c>
       <c r="J4">
-        <v>0.5077559037916621</v>
+        <v>0.5252797549626481</v>
       </c>
       <c r="K4">
-        <v>0.512818457423993</v>
+        <v>0.5252797549626481</v>
       </c>
       <c r="L4">
-        <v>0.512818457423993</v>
+        <v>0.5252797549626481</v>
       </c>
       <c r="M4">
-        <v>0.5157821443168324</v>
+        <v>0.5252797549626481</v>
       </c>
       <c r="N4">
-        <v>0.5559127998154181</v>
+        <v>0.563461589452337</v>
       </c>
       <c r="O4">
-        <v>0.6459000812784507</v>
+        <v>0.655926870706524</v>
       </c>
       <c r="P4">
-        <v>0.6459000812784507</v>
+        <v>0.655926870706524</v>
       </c>
       <c r="Q4">
-        <v>0.7908320053277534</v>
+        <v>0.8082153855456125</v>
       </c>
       <c r="R4">
-        <v>0.8048701128678231</v>
+        <v>0.8179878880627315</v>
       </c>
       <c r="S4">
-        <v>0.8187896434313922</v>
+        <v>0.8276312850323562</v>
       </c>
       <c r="T4">
-        <v>0.9623732305509878</v>
+        <v>0.978451742727013</v>
       </c>
       <c r="U4">
-        <v>0.9685481157590474</v>
+        <v>0.9796628393607604</v>
       </c>
       <c r="V4">
-        <v>0.9685481157590474</v>
+        <v>0.9796628393607604</v>
       </c>
       <c r="W4">
-        <v>0.9711962296878667</v>
+        <v>0.9796628393607604</v>
       </c>
       <c r="X4">
-        <v>0.9711962296878667</v>
+        <v>0.9796628393607604</v>
       </c>
       <c r="Y4">
-        <v>0.9711962296878667</v>
+        <v>0.9796628393607604</v>
       </c>
       <c r="Z4">
-        <v>0.9711962296878667</v>
+        <v>0.9796628393607604</v>
       </c>
       <c r="AA4">
-        <v>0.9711962296878667</v>
+        <v>0.9796628393607604</v>
       </c>
       <c r="AB4">
-        <v>0.9711962296878667</v>
+        <v>0.9796628393607604</v>
       </c>
       <c r="AC4">
-        <v>0.9711962296878667</v>
+        <v>0.9796628393607604</v>
       </c>
       <c r="AD4">
-        <v>0.9872022581955712</v>
+        <v>0.9915779965605193</v>
       </c>
       <c r="AE4">
-        <v>0.9872022581955712</v>
+        <v>0.9915779965605193</v>
       </c>
       <c r="AF4">
-        <v>0.9872022581955712</v>
+        <v>0.9915779965605193</v>
       </c>
       <c r="AG4">
-        <v>0.9872022581955712</v>
+        <v>0.9915779965605193</v>
       </c>
       <c r="AH4">
-        <v>0.9872022581955712</v>
+        <v>0.9915779965605193</v>
       </c>
       <c r="AI4">
         <v>1</v>
@@ -2242,103 +2242,103 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2833614872253823</v>
+        <v>0.2914862880220755</v>
       </c>
       <c r="E5">
-        <v>0.4064317655704077</v>
+        <v>0.4168813048745706</v>
       </c>
       <c r="F5">
-        <v>0.4358556779079749</v>
+        <v>0.4452414058434374</v>
       </c>
       <c r="G5">
-        <v>0.4358556779079749</v>
+        <v>0.4452414058434374</v>
       </c>
       <c r="H5">
-        <v>0.5014653225864123</v>
+        <v>0.5110966029231792</v>
       </c>
       <c r="I5">
-        <v>0.5035194951642828</v>
+        <v>0.5110966029231792</v>
       </c>
       <c r="J5">
-        <v>0.5068848335047963</v>
+        <v>0.5124552126045993</v>
       </c>
       <c r="K5">
-        <v>0.5170982905464201</v>
+        <v>0.5209097369536577</v>
       </c>
       <c r="L5">
-        <v>0.5170982905464201</v>
+        <v>0.5209097369536577</v>
       </c>
       <c r="M5">
-        <v>0.5170982905464201</v>
+        <v>0.5209097369536577</v>
       </c>
       <c r="N5">
-        <v>0.5629257081578417</v>
+        <v>0.5662668963488851</v>
       </c>
       <c r="O5">
-        <v>0.6273276174376489</v>
+        <v>0.6308706566904791</v>
       </c>
       <c r="P5">
-        <v>0.6273276174376489</v>
+        <v>0.6308706566904791</v>
       </c>
       <c r="Q5">
-        <v>0.7532036594494939</v>
+        <v>0.7591729624534429</v>
       </c>
       <c r="R5">
-        <v>0.7607465484296725</v>
+        <v>0.7648602854870419</v>
       </c>
       <c r="S5">
-        <v>0.812593877518791</v>
+        <v>0.8164551840361696</v>
       </c>
       <c r="T5">
-        <v>0.9484469743383284</v>
+        <v>0.9550955596603138</v>
       </c>
       <c r="U5">
-        <v>0.9697392962733822</v>
+        <v>0.9750298324379919</v>
       </c>
       <c r="V5">
-        <v>0.9697392962733822</v>
+        <v>0.9750298324379919</v>
       </c>
       <c r="W5">
-        <v>0.9757393276522758</v>
+        <v>0.979118470290906</v>
       </c>
       <c r="X5">
-        <v>0.9795676106414206</v>
+        <v>0.9809567760561566</v>
       </c>
       <c r="Y5">
-        <v>0.9795676106414206</v>
+        <v>0.9809567760561566</v>
       </c>
       <c r="Z5">
-        <v>0.9795676106414206</v>
+        <v>0.9809567760561566</v>
       </c>
       <c r="AA5">
-        <v>0.9795676106414206</v>
+        <v>0.9809567760561566</v>
       </c>
       <c r="AB5">
-        <v>0.9795676106414206</v>
+        <v>0.9809567760561566</v>
       </c>
       <c r="AC5">
-        <v>0.9795676106414206</v>
+        <v>0.9809567760561566</v>
       </c>
       <c r="AD5">
-        <v>0.9795676106414206</v>
+        <v>0.9809567760561566</v>
       </c>
       <c r="AE5">
-        <v>0.9795676106414206</v>
+        <v>0.9809567760561566</v>
       </c>
       <c r="AF5">
-        <v>0.9795676106414206</v>
+        <v>0.9809567760561566</v>
       </c>
       <c r="AG5">
-        <v>0.9795676106414206</v>
+        <v>0.9809567760561566</v>
       </c>
       <c r="AH5">
-        <v>0.9795676106414206</v>
+        <v>0.9809567760561566</v>
       </c>
       <c r="AI5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -2352,103 +2352,103 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2544969714732909</v>
+        <v>0.2451825388406494</v>
       </c>
       <c r="E6">
-        <v>0.2606766707067069</v>
+        <v>0.2540692078625508</v>
       </c>
       <c r="F6">
-        <v>0.4327686577402889</v>
+        <v>0.4208361081133423</v>
       </c>
       <c r="G6">
-        <v>0.4327686577402889</v>
+        <v>0.4208361081133423</v>
       </c>
       <c r="H6">
-        <v>0.4874377783567549</v>
+        <v>0.4758647546922753</v>
       </c>
       <c r="I6">
-        <v>0.5120953773118356</v>
+        <v>0.5023347812783518</v>
       </c>
       <c r="J6">
-        <v>0.5120953773118356</v>
+        <v>0.5023347812783518</v>
       </c>
       <c r="K6">
-        <v>0.553522366787743</v>
+        <v>0.544762367657616</v>
       </c>
       <c r="L6">
-        <v>0.553522366787743</v>
+        <v>0.544762367657616</v>
       </c>
       <c r="M6">
-        <v>0.553522366787743</v>
+        <v>0.544762367657616</v>
       </c>
       <c r="N6">
-        <v>0.5804247659918959</v>
+        <v>0.5733685204287107</v>
       </c>
       <c r="O6">
-        <v>0.6307280923030378</v>
+        <v>0.6242427271915131</v>
       </c>
       <c r="P6">
-        <v>0.6994007942308315</v>
+        <v>0.692597021224165</v>
       </c>
       <c r="Q6">
-        <v>0.7565968610310818</v>
+        <v>0.7500302808253676</v>
       </c>
       <c r="R6">
-        <v>0.7659105814682383</v>
+        <v>0.7618992484996675</v>
       </c>
       <c r="S6">
-        <v>0.8996528948749876</v>
+        <v>0.8921730389269756</v>
       </c>
       <c r="T6">
-        <v>0.9399567166547447</v>
+        <v>0.9335318318013813</v>
       </c>
       <c r="U6">
-        <v>0.9923963119363793</v>
+        <v>0.9864388876285926</v>
       </c>
       <c r="V6">
-        <v>0.9923963119363793</v>
+        <v>0.9864388876285926</v>
       </c>
       <c r="W6">
-        <v>0.9923963119363793</v>
+        <v>0.9864388876285926</v>
       </c>
       <c r="X6">
-        <v>0.9993578749195992</v>
+        <v>0.9960695692323541</v>
       </c>
       <c r="Y6">
-        <v>0.9993578749195992</v>
+        <v>0.9960695692323541</v>
       </c>
       <c r="Z6">
-        <v>0.9993578749195992</v>
+        <v>0.9963828230652561</v>
       </c>
       <c r="AA6">
-        <v>0.9993578749195992</v>
+        <v>0.9963828230652561</v>
       </c>
       <c r="AB6">
-        <v>0.9993578749195992</v>
+        <v>0.9963828230652561</v>
       </c>
       <c r="AC6">
-        <v>0.9993578749195992</v>
+        <v>0.9963828230652561</v>
       </c>
       <c r="AD6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AE6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AF6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AG6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AH6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:36">
@@ -2462,94 +2462,94 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.3012691827331498</v>
+        <v>0.3122396859037459</v>
       </c>
       <c r="E7">
-        <v>0.3645912408839827</v>
+        <v>0.3759904668943993</v>
       </c>
       <c r="F7">
-        <v>0.5940290805245505</v>
+        <v>0.6132164630347395</v>
       </c>
       <c r="G7">
-        <v>0.5940290805245505</v>
+        <v>0.6132164630347395</v>
       </c>
       <c r="H7">
-        <v>0.5940290805245505</v>
+        <v>0.6132164630347395</v>
       </c>
       <c r="I7">
-        <v>0.6827523125344299</v>
+        <v>0.7034937670368444</v>
       </c>
       <c r="J7">
-        <v>0.6827523125344299</v>
+        <v>0.7034937670368444</v>
       </c>
       <c r="K7">
-        <v>0.6827523125344299</v>
+        <v>0.7034937670368444</v>
       </c>
       <c r="L7">
-        <v>0.6876177689818399</v>
+        <v>0.7061981413196109</v>
       </c>
       <c r="M7">
-        <v>0.688826674983108</v>
+        <v>0.7061981413196109</v>
       </c>
       <c r="N7">
-        <v>0.7165304191962248</v>
+        <v>0.7327526088823544</v>
       </c>
       <c r="O7">
-        <v>0.7899155330913554</v>
+        <v>0.8070122695510847</v>
       </c>
       <c r="P7">
-        <v>0.7899155330913554</v>
+        <v>0.8070122695510847</v>
       </c>
       <c r="Q7">
-        <v>0.7899155330913554</v>
+        <v>0.8070122695510847</v>
       </c>
       <c r="R7">
-        <v>0.7899155330913554</v>
+        <v>0.8070122695510847</v>
       </c>
       <c r="S7">
-        <v>0.7935304445421474</v>
+        <v>0.8084106958956291</v>
       </c>
       <c r="T7">
-        <v>0.8227010986127248</v>
+        <v>0.836497061877933</v>
       </c>
       <c r="U7">
-        <v>0.8249769099224425</v>
+        <v>0.836497061877933</v>
       </c>
       <c r="V7">
-        <v>0.8320631525671638</v>
+        <v>0.8415206099316986</v>
       </c>
       <c r="W7">
-        <v>0.8320631525671638</v>
+        <v>0.8415206099316986</v>
       </c>
       <c r="X7">
-        <v>0.8879109562072507</v>
+        <v>0.8974660042353846</v>
       </c>
       <c r="Y7">
-        <v>0.8881609919980572</v>
+        <v>0.8974660042353846</v>
       </c>
       <c r="Z7">
-        <v>0.9305503720996962</v>
+        <v>0.9393567259608836</v>
       </c>
       <c r="AA7">
-        <v>0.9305503720996962</v>
+        <v>0.9393567259608836</v>
       </c>
       <c r="AB7">
-        <v>0.9344840010209874</v>
+        <v>0.9410879899279041</v>
       </c>
       <c r="AC7">
-        <v>0.943790238744649</v>
+        <v>0.9484298855853514</v>
       </c>
       <c r="AD7">
-        <v>0.9741484824293311</v>
+        <v>0.9777564550087057</v>
       </c>
       <c r="AE7">
-        <v>0.9741484824293311</v>
+        <v>0.9777564550087057</v>
       </c>
       <c r="AF7">
-        <v>0.9741484824293311</v>
+        <v>0.9777564550087057</v>
       </c>
       <c r="AG7">
-        <v>0.9786552071201328</v>
+        <v>0.9800862046284777</v>
       </c>
       <c r="AH7">
         <v>1</v>
@@ -2572,91 +2572,91 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2558249994800285</v>
+        <v>0.2812869786318517</v>
       </c>
       <c r="E8">
-        <v>0.3703773728311075</v>
+        <v>0.4031014622468409</v>
       </c>
       <c r="F8">
-        <v>0.4567261512242227</v>
+        <v>0.4930789383704699</v>
       </c>
       <c r="G8">
-        <v>0.4567261512242227</v>
+        <v>0.4930789383704699</v>
       </c>
       <c r="H8">
-        <v>0.4964548508579</v>
+        <v>0.5304303645552799</v>
       </c>
       <c r="I8">
-        <v>0.5563081509498179</v>
+        <v>0.5904990030849906</v>
       </c>
       <c r="J8">
-        <v>0.5563081509498179</v>
+        <v>0.5904990030849906</v>
       </c>
       <c r="K8">
-        <v>0.5629481723996381</v>
+        <v>0.5904990030849906</v>
       </c>
       <c r="L8">
-        <v>0.5629481723996381</v>
+        <v>0.5904990030849906</v>
       </c>
       <c r="M8">
-        <v>0.5797567678151307</v>
+        <v>0.60197757402618</v>
       </c>
       <c r="N8">
-        <v>0.7155419068454206</v>
+        <v>0.7477601979083537</v>
       </c>
       <c r="O8">
-        <v>0.7870957484076361</v>
+        <v>0.8210367351828182</v>
       </c>
       <c r="P8">
-        <v>0.7870957484076361</v>
+        <v>0.8210367351828182</v>
       </c>
       <c r="Q8">
-        <v>0.8069037571411339</v>
+        <v>0.835901127839904</v>
       </c>
       <c r="R8">
-        <v>0.8069037571411339</v>
+        <v>0.835901127839904</v>
       </c>
       <c r="S8">
-        <v>0.8794295026452563</v>
+        <v>0.9102747774904856</v>
       </c>
       <c r="T8">
-        <v>0.9478519551369965</v>
+        <v>0.9800165151252703</v>
       </c>
       <c r="U8">
-        <v>0.957303114877472</v>
+        <v>0.9831898067199141</v>
       </c>
       <c r="V8">
-        <v>0.957303114877472</v>
+        <v>0.9831898067199141</v>
       </c>
       <c r="W8">
-        <v>0.9663918976848156</v>
+        <v>0.9859540370884264</v>
       </c>
       <c r="X8">
-        <v>0.9762138573603568</v>
+        <v>0.9895458980295694</v>
       </c>
       <c r="Y8">
-        <v>0.9774589341319384</v>
+        <v>0.9895458980295694</v>
       </c>
       <c r="Z8">
-        <v>0.9774589341319384</v>
+        <v>0.9895458980295694</v>
       </c>
       <c r="AA8">
-        <v>0.9774589341319384</v>
+        <v>0.9895458980295694</v>
       </c>
       <c r="AB8">
-        <v>0.9774589341319384</v>
+        <v>0.9895458980295694</v>
       </c>
       <c r="AC8">
-        <v>0.9774589341319384</v>
+        <v>0.9895458980295694</v>
       </c>
       <c r="AD8">
-        <v>0.989471840623294</v>
+        <v>0.9956109610675449</v>
       </c>
       <c r="AE8">
-        <v>0.989471840623294</v>
+        <v>0.9956109610675449</v>
       </c>
       <c r="AF8">
-        <v>0.989471840623294</v>
+        <v>0.9956109610675449</v>
       </c>
       <c r="AG8">
         <v>1</v>
@@ -2682,97 +2682,97 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.3479566098644447</v>
+        <v>0.3838885392138564</v>
       </c>
       <c r="E9">
-        <v>0.4417573472152401</v>
+        <v>0.4823263347801685</v>
       </c>
       <c r="F9">
-        <v>0.5756910974312515</v>
+        <v>0.6258388250757049</v>
       </c>
       <c r="G9">
-        <v>0.5756910974312515</v>
+        <v>0.6258388250757049</v>
       </c>
       <c r="H9">
-        <v>0.5864896399591507</v>
+        <v>0.6310541505009756</v>
       </c>
       <c r="I9">
-        <v>0.683646740373352</v>
+        <v>0.733261586811469</v>
       </c>
       <c r="J9">
-        <v>0.6898017301573883</v>
+        <v>0.733261586811469</v>
       </c>
       <c r="K9">
-        <v>0.6898017301573883</v>
+        <v>0.733261586811469</v>
       </c>
       <c r="L9">
-        <v>0.6898017301573883</v>
+        <v>0.733261586811469</v>
       </c>
       <c r="M9">
-        <v>0.706907642046756</v>
+        <v>0.7455609243309093</v>
       </c>
       <c r="N9">
-        <v>0.744624154947238</v>
+        <v>0.7810086995687399</v>
       </c>
       <c r="O9">
-        <v>0.7922931463885934</v>
+        <v>0.8276344278183624</v>
       </c>
       <c r="P9">
-        <v>0.7922931463885934</v>
+        <v>0.8276344278183624</v>
       </c>
       <c r="Q9">
-        <v>0.8381729770781715</v>
+        <v>0.8722506913168905</v>
       </c>
       <c r="R9">
-        <v>0.8381729770781715</v>
+        <v>0.8722506913168905</v>
       </c>
       <c r="S9">
-        <v>0.8655754102014713</v>
+        <v>0.8961143874094374</v>
       </c>
       <c r="T9">
-        <v>0.9184409222385045</v>
+        <v>0.9485764973005517</v>
       </c>
       <c r="U9">
-        <v>0.9184409222385045</v>
+        <v>0.9485764973005517</v>
       </c>
       <c r="V9">
-        <v>0.9184409222385045</v>
+        <v>0.9485764973005517</v>
       </c>
       <c r="W9">
-        <v>0.9184409222385045</v>
+        <v>0.9485764973005517</v>
       </c>
       <c r="X9">
-        <v>0.9314331192717583</v>
+        <v>0.9562555875944686</v>
       </c>
       <c r="Y9">
-        <v>0.9539920410736917</v>
+        <v>0.9746793782664745</v>
       </c>
       <c r="Z9">
-        <v>0.9636933737516556</v>
+        <v>0.9786623915499723</v>
       </c>
       <c r="AA9">
-        <v>0.9636933737516556</v>
+        <v>0.9786623915499723</v>
       </c>
       <c r="AB9">
-        <v>0.9636933737516556</v>
+        <v>0.9786623915499723</v>
       </c>
       <c r="AC9">
-        <v>0.9636933737516556</v>
+        <v>0.9786623915499723</v>
       </c>
       <c r="AD9">
-        <v>0.9876769066767694</v>
+        <v>0.9986862094041105</v>
       </c>
       <c r="AE9">
-        <v>0.9876769066767694</v>
+        <v>0.9986862094041105</v>
       </c>
       <c r="AF9">
-        <v>0.9876769066767694</v>
+        <v>0.9986862094041105</v>
       </c>
       <c r="AG9">
-        <v>0.9926752546534743</v>
+        <v>0.9986862094041105</v>
       </c>
       <c r="AH9">
-        <v>0.9926752546534743</v>
+        <v>0.9986862094041105</v>
       </c>
       <c r="AI9">
         <v>1</v>
@@ -2795,100 +2795,100 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1206198647699611</v>
+        <v>0.1207714179212137</v>
       </c>
       <c r="F10">
-        <v>0.1206198647699611</v>
+        <v>0.1207714179212137</v>
       </c>
       <c r="G10">
-        <v>0.440743369745504</v>
+        <v>0.4415357511026589</v>
       </c>
       <c r="H10">
-        <v>0.440743369745504</v>
+        <v>0.4415357511026589</v>
       </c>
       <c r="I10">
-        <v>0.440743369745504</v>
+        <v>0.4415357511026589</v>
       </c>
       <c r="J10">
-        <v>0.5100512446295467</v>
+        <v>0.5108693384433696</v>
       </c>
       <c r="K10">
-        <v>0.5100512446295467</v>
+        <v>0.5108693384433696</v>
       </c>
       <c r="L10">
-        <v>0.5127055181699488</v>
+        <v>0.513385859029952</v>
       </c>
       <c r="M10">
-        <v>0.5127055181699488</v>
+        <v>0.513385859029952</v>
       </c>
       <c r="N10">
-        <v>0.5684665911570042</v>
+        <v>0.569139421459641</v>
       </c>
       <c r="O10">
-        <v>0.6173466197327332</v>
+        <v>0.6179950639795069</v>
       </c>
       <c r="P10">
-        <v>0.7399475916083683</v>
+        <v>0.740752447595874</v>
       </c>
       <c r="Q10">
-        <v>0.7606767826298271</v>
+        <v>0.761388213708</v>
       </c>
       <c r="R10">
-        <v>0.7606767826298271</v>
+        <v>0.761388213708</v>
       </c>
       <c r="S10">
-        <v>0.7606767826298271</v>
+        <v>0.761388213708</v>
       </c>
       <c r="T10">
-        <v>0.7884043917898919</v>
+        <v>0.7890395613118103</v>
       </c>
       <c r="U10">
-        <v>0.7885483013155377</v>
+        <v>0.7890395613118103</v>
       </c>
       <c r="V10">
-        <v>0.8138364247528286</v>
+        <v>0.8142454404473233</v>
       </c>
       <c r="W10">
-        <v>0.8138364247528286</v>
+        <v>0.8142454404473233</v>
       </c>
       <c r="X10">
-        <v>0.8138364247528286</v>
+        <v>0.8142454404473233</v>
       </c>
       <c r="Y10">
-        <v>0.862591766989988</v>
+        <v>0.8629760908401384</v>
       </c>
       <c r="Z10">
-        <v>0.862591766989988</v>
+        <v>0.8629760908401384</v>
       </c>
       <c r="AA10">
-        <v>0.8967594392220029</v>
+        <v>0.8970832955245104</v>
       </c>
       <c r="AB10">
-        <v>0.8967594392220029</v>
+        <v>0.8970832955245104</v>
       </c>
       <c r="AC10">
-        <v>0.8967594392220029</v>
+        <v>0.8970832955245104</v>
       </c>
       <c r="AD10">
-        <v>0.8967594392220029</v>
+        <v>0.8970832955245104</v>
       </c>
       <c r="AE10">
-        <v>0.9359406854759018</v>
+        <v>0.9362163698294884</v>
       </c>
       <c r="AF10">
-        <v>0.9512091313825899</v>
+        <v>0.9513779985581027</v>
       </c>
       <c r="AG10">
-        <v>0.9512091313825899</v>
+        <v>0.9513779985581027</v>
       </c>
       <c r="AH10">
-        <v>0.9610101729260878</v>
+        <v>0.9610588143232334</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ10">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:36">
@@ -2902,103 +2902,103 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.01426140367857939</v>
+        <v>0.01507062493172911</v>
       </c>
       <c r="E11">
-        <v>0.3849613887018741</v>
+        <v>0.3810758482297416</v>
       </c>
       <c r="F11">
-        <v>0.5257795756173121</v>
+        <v>0.5207490168260785</v>
       </c>
       <c r="G11">
-        <v>0.5796362667658235</v>
+        <v>0.5748035145277977</v>
       </c>
       <c r="H11">
-        <v>0.5796362667658235</v>
+        <v>0.5748035145277977</v>
       </c>
       <c r="I11">
-        <v>0.5945447995728319</v>
+        <v>0.5905112758770257</v>
       </c>
       <c r="J11">
-        <v>0.6712465893017767</v>
+        <v>0.6670581072220804</v>
       </c>
       <c r="K11">
-        <v>0.6927531299332793</v>
+        <v>0.6892619925800254</v>
       </c>
       <c r="L11">
-        <v>0.6927531299332793</v>
+        <v>0.6892619925800254</v>
       </c>
       <c r="M11">
-        <v>0.6927531299332793</v>
+        <v>0.6892619925800254</v>
       </c>
       <c r="N11">
-        <v>0.6927531299332793</v>
+        <v>0.6892619925800254</v>
       </c>
       <c r="O11">
-        <v>0.7293135065121752</v>
+        <v>0.7262872585307779</v>
       </c>
       <c r="P11">
-        <v>0.7990160156785011</v>
+        <v>0.7959428894232079</v>
       </c>
       <c r="Q11">
-        <v>0.7990160156785011</v>
+        <v>0.7959428894232079</v>
       </c>
       <c r="R11">
-        <v>0.8699780285914452</v>
+        <v>0.8668385753057369</v>
       </c>
       <c r="S11">
-        <v>0.8699780285914452</v>
+        <v>0.8668385753057369</v>
       </c>
       <c r="T11">
-        <v>0.8699780285914452</v>
+        <v>0.8668385753057369</v>
       </c>
       <c r="U11">
-        <v>0.9595697223902434</v>
+        <v>0.9560762699424935</v>
       </c>
       <c r="V11">
-        <v>0.9595697223902434</v>
+        <v>0.9560762699424935</v>
       </c>
       <c r="W11">
-        <v>0.9595697223902434</v>
+        <v>0.9560762699424935</v>
       </c>
       <c r="X11">
-        <v>0.9665098402403283</v>
+        <v>0.9639386614331219</v>
       </c>
       <c r="Y11">
-        <v>0.9700540408865013</v>
+        <v>0.9684575741242782</v>
       </c>
       <c r="Z11">
-        <v>0.9876195796438587</v>
+        <v>0.9867813129934616</v>
       </c>
       <c r="AA11">
-        <v>0.9876195796438587</v>
+        <v>0.9867813129934616</v>
       </c>
       <c r="AB11">
-        <v>0.9876195796438587</v>
+        <v>0.9867813129934616</v>
       </c>
       <c r="AC11">
-        <v>0.9876195796438587</v>
+        <v>0.9867813129934616</v>
       </c>
       <c r="AD11">
-        <v>0.9876195796438587</v>
+        <v>0.9867813129934616</v>
       </c>
       <c r="AE11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -3066,16 +3066,16 @@
         <v>1</v>
       </c>
       <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.518819672504264</v>
+      </c>
+      <c r="G2">
         <v>4</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.5208471588734528</v>
-      </c>
-      <c r="G2">
-        <v>3</v>
       </c>
       <c r="H2">
         <v>8</v>
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5030257281846007</v>
+        <v>0.5180496169267375</v>
       </c>
       <c r="G3">
         <v>7</v>
@@ -3154,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5077559037916621</v>
+        <v>0.5252797549626481</v>
       </c>
       <c r="G4">
         <v>8</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5014653225864123</v>
+        <v>0.5110966029231792</v>
       </c>
       <c r="G5">
         <v>6</v>
@@ -3236,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5120953773118356</v>
+        <v>0.5023347812783518</v>
       </c>
       <c r="G6">
         <v>7</v>
@@ -3277,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5940290805245505</v>
+        <v>0.6132164630347395</v>
       </c>
       <c r="G7">
         <v>4</v>
@@ -3312,16 +3312,16 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5563081509498179</v>
+        <v>0.5304303645552799</v>
       </c>
       <c r="G8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H8">
         <v>8</v>
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5756910974312515</v>
+        <v>0.6258388250757049</v>
       </c>
       <c r="G9">
         <v>4</v>
@@ -3400,7 +3400,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5100512446295467</v>
+        <v>0.5108693384433696</v>
       </c>
       <c r="G10">
         <v>7</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5257795756173121</v>
+        <v>0.5207490168260785</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -3536,7 +3536,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7712448641197807</v>
+        <v>0.7126977287430325</v>
       </c>
       <c r="G2">
         <v>13</v>
@@ -3577,7 +3577,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7338235955922381</v>
+        <v>0.7472749581346587</v>
       </c>
       <c r="G3">
         <v>14</v>
@@ -3618,7 +3618,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7908320053277534</v>
+        <v>0.8082153855456125</v>
       </c>
       <c r="G4">
         <v>15</v>
@@ -3659,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7532036594494939</v>
+        <v>0.7591729624534429</v>
       </c>
       <c r="G5">
         <v>15</v>
@@ -3700,7 +3700,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7565968610310818</v>
+        <v>0.7500302808253676</v>
       </c>
       <c r="G6">
         <v>15</v>
@@ -3735,16 +3735,16 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7165304191962248</v>
+        <v>0.7034937670368444</v>
       </c>
       <c r="G7">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H7">
         <v>8</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7155419068454206</v>
+        <v>0.7477601979083537</v>
       </c>
       <c r="G8">
         <v>12</v>
@@ -3817,16 +3817,16 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.706907642046756</v>
+        <v>0.733261586811469</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H9">
         <v>8</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7399475916083683</v>
+        <v>0.740752447595874</v>
       </c>
       <c r="G10">
         <v>13</v>
@@ -3905,7 +3905,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7293135065121752</v>
+        <v>0.7262872585307779</v>
       </c>
       <c r="G11">
         <v>12</v>
@@ -3994,16 +3994,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8150272773127424</v>
+        <v>0.8472787855603432</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H2">
         <v>8</v>
@@ -4041,7 +4041,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8772742832795847</v>
+        <v>0.890085246877963</v>
       </c>
       <c r="G3">
         <v>17</v>
@@ -4076,16 +4076,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8048701128678231</v>
+        <v>0.8082153855456125</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4">
         <v>8</v>
@@ -4123,7 +4123,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.812593877518791</v>
+        <v>0.8164551840361696</v>
       </c>
       <c r="G5">
         <v>17</v>
@@ -4164,7 +4164,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8996528948749876</v>
+        <v>0.8921730389269756</v>
       </c>
       <c r="G6">
         <v>17</v>
@@ -4199,16 +4199,16 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8227010986127248</v>
+        <v>0.8070122695510847</v>
       </c>
       <c r="G7">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H7">
         <v>8</v>
@@ -4240,16 +4240,16 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8069037571411339</v>
+        <v>0.8210367351828182</v>
       </c>
       <c r="G8">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H8">
         <v>8</v>
@@ -4281,16 +4281,16 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8381729770781715</v>
+        <v>0.8276344278183624</v>
       </c>
       <c r="G9">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H9">
         <v>8</v>
@@ -4328,7 +4328,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8138364247528286</v>
+        <v>0.8142454404473233</v>
       </c>
       <c r="G10">
         <v>19</v>
@@ -4369,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8699780285914452</v>
+        <v>0.8668385753057369</v>
       </c>
       <c r="G11">
         <v>15</v>
@@ -4458,16 +4458,16 @@
         <v>1</v>
       </c>
       <c r="D2">
+        <v>23</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.9005530081614894</v>
+      </c>
+      <c r="G2">
         <v>22</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.9129344558951971</v>
-      </c>
-      <c r="G2">
-        <v>21</v>
       </c>
       <c r="H2">
         <v>8</v>
@@ -4505,7 +4505,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9433260116615574</v>
+        <v>0.9555140279146046</v>
       </c>
       <c r="G3">
         <v>19</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9623732305509878</v>
+        <v>0.978451742727013</v>
       </c>
       <c r="G4">
         <v>18</v>
@@ -4587,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9484469743383284</v>
+        <v>0.9550955596603138</v>
       </c>
       <c r="G5">
         <v>18</v>
@@ -4628,7 +4628,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9399567166547447</v>
+        <v>0.9335318318013813</v>
       </c>
       <c r="G6">
         <v>18</v>
@@ -4669,7 +4669,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9305503720996962</v>
+        <v>0.9393567259608836</v>
       </c>
       <c r="G7">
         <v>24</v>
@@ -4704,16 +4704,16 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9478519551369965</v>
+        <v>0.9102747774904856</v>
       </c>
       <c r="G8">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H8">
         <v>8</v>
@@ -4751,7 +4751,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9184409222385045</v>
+        <v>0.9485764973005517</v>
       </c>
       <c r="G9">
         <v>18</v>
@@ -4792,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9359406854759018</v>
+        <v>0.9362163698294884</v>
       </c>
       <c r="G10">
         <v>28</v>
@@ -4833,7 +4833,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9595697223902434</v>
+        <v>0.9560762699424935</v>
       </c>
       <c r="G11">
         <v>18</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/8_455-55R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/8_455-55R22.xlsx
@@ -159,40 +159,43 @@
     <t>signal segment 10</t>
   </si>
   <si>
+    <t>First_Noticeable_Increase_Cumulative_Value</t>
+  </si>
+  <si>
+    <t>First_Noticeable_Increase_Index</t>
+  </si>
+  <si>
     <t>Intensity_Threshold</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Index</t>
+    <t>Point_Exceeds_Cumulative_Value</t>
   </si>
   <si>
     <t>Point_Exceeds_Index</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Cumulative_Value</t>
-  </si>
-  <si>
-    <t>Point_Exceeds_Cumulative_Value</t>
+    <t>Pressure</t>
   </si>
   <si>
     <t>Pulse_Width</t>
   </si>
   <si>
+    <t>Rim</t>
+  </si>
+  <si>
+    <t>TireSize</t>
+  </si>
+  <si>
     <t>Tire_Number</t>
   </si>
   <si>
-    <t>Pressure</t>
-  </si>
-  <si>
-    <t>TireSize</t>
-  </si>
-  <si>
     <t>Tire_Type</t>
   </si>
   <si>
     <t>Wear</t>
   </si>
   <si>
-    <t>Rim</t>
+    <t>Ir</t>
   </si>
   <si>
     <t>455-55R22.5</t>
@@ -202,9 +205,6 @@
   </si>
   <si>
     <t>0%</t>
-  </si>
-  <si>
-    <t>Ir</t>
   </si>
 </sst>
 </file>
@@ -689,70 +689,70 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.3239807807846385</v>
+        <v>0.516287837649309</v>
       </c>
       <c r="E2">
-        <v>0.1271945682126572</v>
+        <v>0.1710423371467625</v>
       </c>
       <c r="F2">
-        <v>0.06764432350696824</v>
+        <v>0.06656624723297161</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.04736941572801997</v>
+        <v>0.03099556068791934</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03482116660518383</v>
+        <v>0.008980672082552538</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.01252907261180858</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.02465916758541737</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.07449923370833864</v>
+        <v>0.0785926329865287</v>
       </c>
       <c r="P2">
-        <v>0.007235373117950392</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.04529268459297379</v>
+        <v>0.02735210380769721</v>
       </c>
       <c r="R2">
-        <v>0.002951333285256535</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>0.07910166582112993</v>
+        <v>0.08666722803839699</v>
       </c>
       <c r="U2">
-        <v>0.007423882249149147</v>
+        <v>0</v>
       </c>
       <c r="V2">
         <v>0</v>
       </c>
       <c r="W2">
-        <v>0.02009090539019987</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.02575943496179717</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.01245225492562398</v>
+        <v>0</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -761,13 +761,13 @@
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.0067816850330935</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.01864094030368467</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.03740590143094085</v>
+        <v>0.01351538036786206</v>
       </c>
       <c r="AE2">
         <v>0</v>
@@ -776,13 +776,13 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.001687774489445241</v>
+        <v>0</v>
       </c>
       <c r="AH2">
         <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.02247843565572275</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
         <v>0</v>
@@ -802,28 +802,28 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.06694808345281165</v>
+        <v>0.06149811949073115</v>
       </c>
       <c r="F3">
-        <v>0.03888452072117945</v>
+        <v>0.02065876497603733</v>
       </c>
       <c r="G3">
-        <v>0.3325037828594885</v>
+        <v>0.4479466775436444</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.01313250546453648</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06658072442872143</v>
+        <v>0.06096352217098022</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.04306203274166699</v>
+        <v>0.02673806773690111</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -832,28 +832,28 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.002234681980792773</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.07736156819463554</v>
+        <v>0.07665228930058714</v>
       </c>
       <c r="Q3">
-        <v>0.1065670582908259</v>
+        <v>0.1191534277062713</v>
       </c>
       <c r="R3">
-        <v>0.006092789298149751</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.02824721885735555</v>
+        <v>0.005178886457018979</v>
       </c>
       <c r="T3">
-        <v>0.108470280587799</v>
+        <v>0.1219230821100844</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3">
-        <v>0.0654287810366416</v>
+        <v>0.05928716250774401</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.008703347935509868</v>
+        <v>0</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.001054451162086672</v>
+        <v>0</v>
       </c>
       <c r="AB3">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="AD3">
-        <v>1.649203410864918E-05</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.02368942519955109</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.01102225575413915</v>
+        <v>0</v>
       </c>
       <c r="AG3">
         <v>0</v>
@@ -909,25 +909,25 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2551816519185202</v>
+        <v>0.3085692187607922</v>
       </c>
       <c r="E4">
-        <v>0.09955946581077767</v>
+        <v>0.101810873078259</v>
       </c>
       <c r="F4">
-        <v>0.06044109764343711</v>
+        <v>0.04983853359139458</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.04129254040240796</v>
+        <v>0.02439791926522491</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06880499918750511</v>
+        <v>0.06095074380996732</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -939,28 +939,28 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.03818183448968889</v>
+        <v>0.02026506119077667</v>
       </c>
       <c r="O4">
-        <v>0.09246528125418702</v>
+        <v>0.09238559831780969</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.1522885148390885</v>
+        <v>0.1718662502656659</v>
       </c>
       <c r="R4">
-        <v>0.009772502517119057</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.00964339696962465</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.1508204576946568</v>
+        <v>0.1699158017201097</v>
       </c>
       <c r="U4">
-        <v>0.001211096633747395</v>
+        <v>0</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.01191515719975893</v>
+        <v>0</v>
       </c>
       <c r="AE4">
         <v>0</v>
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.008422003439480758</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -1019,28 +1019,28 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2914862880220755</v>
+        <v>0.3709558008553827</v>
       </c>
       <c r="E5">
-        <v>0.125395016852495</v>
+        <v>0.1402718220640897</v>
       </c>
       <c r="F5">
-        <v>0.02836010096886674</v>
+        <v>0.005500137073737788</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.06585519707974183</v>
+        <v>0.05757703368070863</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.001358609681420119</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.008454524349058471</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1049,37 +1049,37 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.04535715939522733</v>
+        <v>0.0291073323100101</v>
       </c>
       <c r="O5">
-        <v>0.06460376034159405</v>
+        <v>0.05583891460961806</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.1283023057629638</v>
+        <v>0.1443097523456755</v>
       </c>
       <c r="R5">
-        <v>0.00568732303359897</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.05159489854912768</v>
+        <v>0.03777092117022655</v>
       </c>
       <c r="T5">
-        <v>0.1386403756241442</v>
+        <v>0.1586682858905511</v>
       </c>
       <c r="U5">
-        <v>0.01993427277767811</v>
+        <v>0</v>
       </c>
       <c r="V5">
         <v>0</v>
       </c>
       <c r="W5">
-        <v>0.00408863785291415</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.001838305765250589</v>
+        <v>0</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.01904322394384353</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
         <v>0</v>
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2451825388406494</v>
+        <v>0.339304990416008</v>
       </c>
       <c r="E6">
-        <v>0.008886669021901387</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.1667669002507915</v>
+        <v>0.2174139905405829</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.05502864657893298</v>
+        <v>0.04372558208887532</v>
       </c>
       <c r="I6">
-        <v>0.0264700265860766</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.04242758637926414</v>
+        <v>0.02413821590976835</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1159,28 +1159,28 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.02860615277109468</v>
+        <v>0.00265387436122582</v>
       </c>
       <c r="O6">
-        <v>0.05087420676280239</v>
+        <v>0.03726782911744279</v>
       </c>
       <c r="P6">
-        <v>0.06835429403265193</v>
+        <v>0.06443926269303094</v>
       </c>
       <c r="Q6">
-        <v>0.05743325960120264</v>
+        <v>0.04746336565945795</v>
       </c>
       <c r="R6">
-        <v>0.01186896767429993</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.1302737904273081</v>
+        <v>0.1606882949403254</v>
       </c>
       <c r="T6">
-        <v>0.04135879287440566</v>
+        <v>0.02247685968911763</v>
       </c>
       <c r="U6">
-        <v>0.05290705582721118</v>
+        <v>0.04042773458416506</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -1189,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="X6">
-        <v>0.009630681603761527</v>
+        <v>0</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.0003132538329019478</v>
+        <v>0</v>
       </c>
       <c r="AA6">
         <v>0</v>
@@ -1207,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.003617176934743937</v>
+        <v>0</v>
       </c>
       <c r="AE6">
         <v>0</v>
@@ -1239,13 +1239,13 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.3122396859037459</v>
+        <v>0.403857399104653</v>
       </c>
       <c r="E7">
-        <v>0.0637507809906534</v>
+        <v>0.05475531382010274</v>
       </c>
       <c r="F7">
-        <v>0.2372259961403403</v>
+        <v>0.2984706594816017</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.09027730400210486</v>
+        <v>0.09202242842984799</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1263,16 +1263,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.002704374282766489</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.02655446756274351</v>
+        <v>0.002498209676468672</v>
       </c>
       <c r="O7">
-        <v>0.07425966066873033</v>
+        <v>0.06951923984289311</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1284,40 +1284,40 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0.001398426344544308</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>0.02808636598230392</v>
+        <v>0.004650373906496101</v>
       </c>
       <c r="U7">
         <v>0</v>
       </c>
       <c r="V7">
-        <v>0.005023548053765584</v>
+        <v>0</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>0.05594539430368589</v>
+        <v>0.04378952534827688</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>0.04189072172549901</v>
+        <v>0.02404411455517667</v>
       </c>
       <c r="AA7">
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.001731263967020517</v>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <v>0.007341895657447223</v>
+        <v>0</v>
       </c>
       <c r="AD7">
-        <v>0.02932656942335429</v>
+        <v>0.006392735834483126</v>
       </c>
       <c r="AE7">
         <v>0</v>
@@ -1326,10 +1326,10 @@
         <v>0</v>
       </c>
       <c r="AG7">
-        <v>0.002329749619772017</v>
+        <v>0</v>
       </c>
       <c r="AH7">
-        <v>0.01991379537152251</v>
+        <v>0</v>
       </c>
       <c r="AI7">
         <v>0</v>
@@ -1349,22 +1349,22 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2812869786318517</v>
+        <v>0.3428965552404915</v>
       </c>
       <c r="E8">
-        <v>0.1218144836149892</v>
+        <v>0.1320665430224304</v>
       </c>
       <c r="F8">
-        <v>0.08997747612362901</v>
+        <v>0.08997654701603307</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.03735142618481001</v>
+        <v>0.02040247563515762</v>
       </c>
       <c r="I8">
-        <v>0.06006863852971071</v>
+        <v>0.05043568077018272</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1376,40 +1376,40 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.01147857094118945</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.1457826238821736</v>
+        <v>0.1637535327120341</v>
       </c>
       <c r="O8">
-        <v>0.07327653727446451</v>
+        <v>0.06789713362722188</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.01486439265708584</v>
+        <v>0</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>0.07437364965058152</v>
+        <v>0.0693475669175324</v>
       </c>
       <c r="T8">
-        <v>0.06974173763478471</v>
+        <v>0.06322396505891617</v>
       </c>
       <c r="U8">
-        <v>0.00317329159464369</v>
+        <v>0</v>
       </c>
       <c r="V8">
         <v>0</v>
       </c>
       <c r="W8">
-        <v>0.002764230368512354</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>0.003591860941142903</v>
+        <v>0</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="AD8">
-        <v>0.006065063037975464</v>
+        <v>0</v>
       </c>
       <c r="AE8">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="AG8">
-        <v>0.004389038932455347</v>
+        <v>0</v>
       </c>
       <c r="AH8">
         <v>0</v>
@@ -1459,22 +1459,22 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.3838885392138564</v>
+        <v>0.4947842807389123</v>
       </c>
       <c r="E9">
-        <v>0.09843779556631217</v>
+        <v>0.1042519900741155</v>
       </c>
       <c r="F9">
-        <v>0.1435124902955364</v>
+        <v>0.1659198055391737</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.005215325425270654</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.1022074363104934</v>
+        <v>0.1094093297117596</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1486,28 +1486,28 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.0122993375194402</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.03544777523783059</v>
+        <v>0.01807377027491244</v>
       </c>
       <c r="O9">
-        <v>0.04662572824962247</v>
+        <v>0.0333666069263685</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.04461626349852809</v>
+        <v>0.03061740802000997</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>0.0238636960925469</v>
+        <v>0.002225302318437863</v>
       </c>
       <c r="T9">
-        <v>0.05246210989111429</v>
+        <v>0.04135150639631029</v>
       </c>
       <c r="U9">
         <v>0</v>
@@ -1519,13 +1519,13 @@
         <v>0</v>
       </c>
       <c r="X9">
-        <v>0.007679090293916865</v>
+        <v>0</v>
       </c>
       <c r="Y9">
-        <v>0.01842379067200589</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>0.003983013283497702</v>
+        <v>0</v>
       </c>
       <c r="AA9">
         <v>0</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="AD9">
-        <v>0.02002381785413822</v>
+        <v>0</v>
       </c>
       <c r="AE9">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="AI9">
-        <v>0.00131379059588963</v>
+        <v>0</v>
       </c>
       <c r="AJ9">
         <v>0</v>
@@ -1572,13 +1572,13 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1207714179212137</v>
+        <v>0.1473454013325298</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.3207643331814452</v>
+        <v>0.456431156389779</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1587,28 +1587,28 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.06933358734071071</v>
+        <v>0.06784908176143799</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.002516520586582516</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.05575356242968903</v>
+        <v>0.04686137703270933</v>
       </c>
       <c r="O10">
-        <v>0.04885564251986584</v>
+        <v>0.03620075547580114</v>
       </c>
       <c r="P10">
-        <v>0.1227573836163671</v>
+        <v>0.1504146785897044</v>
       </c>
       <c r="Q10">
-        <v>0.02063576611212607</v>
+        <v>0</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -1617,13 +1617,13 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>0.02765134760381024</v>
+        <v>0.003429867086791879</v>
       </c>
       <c r="U10">
         <v>0</v>
       </c>
       <c r="V10">
-        <v>0.025205879135513</v>
+        <v>0</v>
       </c>
       <c r="W10">
         <v>0</v>
@@ -1632,13 +1632,13 @@
         <v>0</v>
       </c>
       <c r="Y10">
-        <v>0.04873065039281509</v>
+        <v>0.03600758220306084</v>
       </c>
       <c r="Z10">
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>0.03410720468437203</v>
+        <v>0.01340728782537499</v>
       </c>
       <c r="AB10">
         <v>0</v>
@@ -1650,19 +1650,19 @@
         <v>0</v>
       </c>
       <c r="AE10">
-        <v>0.03913307430497807</v>
+        <v>0.02117468650788825</v>
       </c>
       <c r="AF10">
-        <v>0.01516162872861428</v>
+        <v>0</v>
       </c>
       <c r="AG10">
         <v>0</v>
       </c>
       <c r="AH10">
-        <v>0.009680815765130704</v>
+        <v>0</v>
       </c>
       <c r="AI10">
-        <v>0.03894118567676643</v>
+        <v>0.0208781257949224</v>
       </c>
       <c r="AJ10">
         <v>0</v>
@@ -1682,25 +1682,25 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.3628814293242403</v>
+        <v>0.491831792752265</v>
       </c>
       <c r="F11">
-        <v>0.1384810812309508</v>
+        <v>0.1638202010569699</v>
       </c>
       <c r="G11">
-        <v>0.05359315151475925</v>
+        <v>0.0397373946864971</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.01557369820717218</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07589351681497127</v>
+        <v>0.07233439544724508</v>
       </c>
       <c r="K11">
-        <v>0.02201437887317288</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1712,16 +1712,16 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.03670926143690409</v>
+        <v>0.01505779099825628</v>
       </c>
       <c r="P11">
-        <v>0.06906113161709074</v>
+        <v>0.06234732741069962</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
       <c r="R11">
-        <v>0.07029060294319085</v>
+        <v>0.06414447634582592</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -1730,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>0.08847606568996788</v>
+        <v>0.090726621302241</v>
       </c>
       <c r="V11">
         <v>0</v>
@@ -1739,13 +1739,13 @@
         <v>0</v>
       </c>
       <c r="X11">
-        <v>0.007795287281195074</v>
+        <v>0</v>
       </c>
       <c r="Y11">
-        <v>0.004480344519627417</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>0.01816734879217641</v>
+        <v>0</v>
       </c>
       <c r="AA11">
         <v>0</v>
@@ -1760,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="AE11">
-        <v>0.0131058677018297</v>
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1775,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="AJ11">
-        <v>0.02347683405275126</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1912,97 +1912,97 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.3239807807846385</v>
+        <v>0.516287837649309</v>
       </c>
       <c r="E2">
-        <v>0.4511753489972957</v>
+        <v>0.6873301747960715</v>
       </c>
       <c r="F2">
-        <v>0.518819672504264</v>
+        <v>0.7538964220290432</v>
       </c>
       <c r="G2">
-        <v>0.518819672504264</v>
+        <v>0.7538964220290432</v>
       </c>
       <c r="H2">
-        <v>0.566189088232284</v>
+        <v>0.7848919827169625</v>
       </c>
       <c r="I2">
-        <v>0.566189088232284</v>
+        <v>0.7848919827169625</v>
       </c>
       <c r="J2">
-        <v>0.6010102548374678</v>
+        <v>0.793872654799515</v>
       </c>
       <c r="K2">
-        <v>0.6010102548374678</v>
+        <v>0.793872654799515</v>
       </c>
       <c r="L2">
-        <v>0.6135393274492764</v>
+        <v>0.793872654799515</v>
       </c>
       <c r="M2">
-        <v>0.6135393274492764</v>
+        <v>0.793872654799515</v>
       </c>
       <c r="N2">
-        <v>0.6381984950346938</v>
+        <v>0.793872654799515</v>
       </c>
       <c r="O2">
-        <v>0.7126977287430325</v>
+        <v>0.8724652877860437</v>
       </c>
       <c r="P2">
-        <v>0.7199331018609829</v>
+        <v>0.8724652877860437</v>
       </c>
       <c r="Q2">
-        <v>0.7652257864539567</v>
+        <v>0.899817391593741</v>
       </c>
       <c r="R2">
-        <v>0.7681771197392132</v>
+        <v>0.899817391593741</v>
       </c>
       <c r="S2">
-        <v>0.7681771197392132</v>
+        <v>0.899817391593741</v>
       </c>
       <c r="T2">
-        <v>0.8472787855603432</v>
+        <v>0.986484619632138</v>
       </c>
       <c r="U2">
-        <v>0.8547026678094923</v>
+        <v>0.986484619632138</v>
       </c>
       <c r="V2">
-        <v>0.8547026678094923</v>
+        <v>0.986484619632138</v>
       </c>
       <c r="W2">
-        <v>0.8747935731996922</v>
+        <v>0.986484619632138</v>
       </c>
       <c r="X2">
-        <v>0.9005530081614894</v>
+        <v>0.986484619632138</v>
       </c>
       <c r="Y2">
-        <v>0.9130052630871134</v>
+        <v>0.986484619632138</v>
       </c>
       <c r="Z2">
-        <v>0.9130052630871134</v>
+        <v>0.986484619632138</v>
       </c>
       <c r="AA2">
-        <v>0.9130052630871134</v>
+        <v>0.986484619632138</v>
       </c>
       <c r="AB2">
-        <v>0.9197869481202069</v>
+        <v>0.986484619632138</v>
       </c>
       <c r="AC2">
-        <v>0.9384278884238916</v>
+        <v>0.986484619632138</v>
       </c>
       <c r="AD2">
-        <v>0.9758337898548324</v>
+        <v>1</v>
       </c>
       <c r="AE2">
-        <v>0.9758337898548324</v>
+        <v>1</v>
       </c>
       <c r="AF2">
-        <v>0.9758337898548324</v>
+        <v>1</v>
       </c>
       <c r="AG2">
-        <v>0.9775215643442776</v>
+        <v>1</v>
       </c>
       <c r="AH2">
-        <v>0.9775215643442776</v>
+        <v>1</v>
       </c>
       <c r="AI2">
         <v>1</v>
@@ -2025,85 +2025,85 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.06694808345281165</v>
+        <v>0.06149811949073115</v>
       </c>
       <c r="F3">
-        <v>0.1058326041739911</v>
+        <v>0.08215688446676848</v>
       </c>
       <c r="G3">
-        <v>0.4383363870334795</v>
+        <v>0.5301035620104129</v>
       </c>
       <c r="H3">
-        <v>0.4383363870334795</v>
+        <v>0.5301035620104129</v>
       </c>
       <c r="I3">
-        <v>0.451468892498016</v>
+        <v>0.5301035620104129</v>
       </c>
       <c r="J3">
-        <v>0.5180496169267375</v>
+        <v>0.5910670841813931</v>
       </c>
       <c r="K3">
-        <v>0.5180496169267375</v>
+        <v>0.5910670841813931</v>
       </c>
       <c r="L3">
-        <v>0.5611116496684044</v>
+        <v>0.6178051519182942</v>
       </c>
       <c r="M3">
-        <v>0.5611116496684044</v>
+        <v>0.6178051519182942</v>
       </c>
       <c r="N3">
-        <v>0.5611116496684044</v>
+        <v>0.6178051519182942</v>
       </c>
       <c r="O3">
-        <v>0.5633463316491972</v>
+        <v>0.6178051519182942</v>
       </c>
       <c r="P3">
-        <v>0.6407078998438328</v>
+        <v>0.6944574412188813</v>
       </c>
       <c r="Q3">
-        <v>0.7472749581346587</v>
+        <v>0.8136108689251526</v>
       </c>
       <c r="R3">
-        <v>0.7533677474328084</v>
+        <v>0.8136108689251526</v>
       </c>
       <c r="S3">
-        <v>0.781614966290164</v>
+        <v>0.8187897553821716</v>
       </c>
       <c r="T3">
-        <v>0.890085246877963</v>
+        <v>0.940712837492256</v>
       </c>
       <c r="U3">
-        <v>0.890085246877963</v>
+        <v>0.940712837492256</v>
       </c>
       <c r="V3">
-        <v>0.9555140279146046</v>
+        <v>1</v>
       </c>
       <c r="W3">
-        <v>0.9555140279146046</v>
+        <v>1</v>
       </c>
       <c r="X3">
-        <v>0.9555140279146046</v>
+        <v>1</v>
       </c>
       <c r="Y3">
-        <v>0.9642173758501145</v>
+        <v>1</v>
       </c>
       <c r="Z3">
-        <v>0.9642173758501145</v>
+        <v>1</v>
       </c>
       <c r="AA3">
-        <v>0.9652718270122012</v>
+        <v>1</v>
       </c>
       <c r="AB3">
-        <v>0.9652718270122012</v>
+        <v>1</v>
       </c>
       <c r="AC3">
-        <v>0.9652718270122012</v>
+        <v>1</v>
       </c>
       <c r="AD3">
-        <v>0.9652883190463099</v>
+        <v>1</v>
       </c>
       <c r="AE3">
-        <v>0.9889777442458609</v>
+        <v>1</v>
       </c>
       <c r="AF3">
         <v>1</v>
@@ -2132,97 +2132,97 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2551816519185202</v>
+        <v>0.3085692187607922</v>
       </c>
       <c r="E4">
-        <v>0.3547411177292979</v>
+        <v>0.4103800918390513</v>
       </c>
       <c r="F4">
-        <v>0.415182215372735</v>
+        <v>0.4602186254304458</v>
       </c>
       <c r="G4">
-        <v>0.415182215372735</v>
+        <v>0.4602186254304458</v>
       </c>
       <c r="H4">
-        <v>0.456474755775143</v>
+        <v>0.4846165446956707</v>
       </c>
       <c r="I4">
-        <v>0.456474755775143</v>
+        <v>0.4846165446956707</v>
       </c>
       <c r="J4">
-        <v>0.5252797549626481</v>
+        <v>0.5455672885056381</v>
       </c>
       <c r="K4">
-        <v>0.5252797549626481</v>
+        <v>0.5455672885056381</v>
       </c>
       <c r="L4">
-        <v>0.5252797549626481</v>
+        <v>0.5455672885056381</v>
       </c>
       <c r="M4">
-        <v>0.5252797549626481</v>
+        <v>0.5455672885056381</v>
       </c>
       <c r="N4">
-        <v>0.563461589452337</v>
+        <v>0.5658323496964147</v>
       </c>
       <c r="O4">
-        <v>0.655926870706524</v>
+        <v>0.6582179480142244</v>
       </c>
       <c r="P4">
-        <v>0.655926870706524</v>
+        <v>0.6582179480142244</v>
       </c>
       <c r="Q4">
-        <v>0.8082153855456125</v>
+        <v>0.8300841982798903</v>
       </c>
       <c r="R4">
-        <v>0.8179878880627315</v>
+        <v>0.8300841982798903</v>
       </c>
       <c r="S4">
-        <v>0.8276312850323562</v>
+        <v>0.8300841982798903</v>
       </c>
       <c r="T4">
-        <v>0.978451742727013</v>
+        <v>1</v>
       </c>
       <c r="U4">
-        <v>0.9796628393607604</v>
+        <v>1</v>
       </c>
       <c r="V4">
-        <v>0.9796628393607604</v>
+        <v>1</v>
       </c>
       <c r="W4">
-        <v>0.9796628393607604</v>
+        <v>1</v>
       </c>
       <c r="X4">
-        <v>0.9796628393607604</v>
+        <v>1</v>
       </c>
       <c r="Y4">
-        <v>0.9796628393607604</v>
+        <v>1</v>
       </c>
       <c r="Z4">
-        <v>0.9796628393607604</v>
+        <v>1</v>
       </c>
       <c r="AA4">
-        <v>0.9796628393607604</v>
+        <v>1</v>
       </c>
       <c r="AB4">
-        <v>0.9796628393607604</v>
+        <v>1</v>
       </c>
       <c r="AC4">
-        <v>0.9796628393607604</v>
+        <v>1</v>
       </c>
       <c r="AD4">
-        <v>0.9915779965605193</v>
+        <v>1</v>
       </c>
       <c r="AE4">
-        <v>0.9915779965605193</v>
+        <v>1</v>
       </c>
       <c r="AF4">
-        <v>0.9915779965605193</v>
+        <v>1</v>
       </c>
       <c r="AG4">
-        <v>0.9915779965605193</v>
+        <v>1</v>
       </c>
       <c r="AH4">
-        <v>0.9915779965605193</v>
+        <v>1</v>
       </c>
       <c r="AI4">
         <v>1</v>
@@ -2242,97 +2242,97 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2914862880220755</v>
+        <v>0.3709558008553827</v>
       </c>
       <c r="E5">
-        <v>0.4168813048745706</v>
+        <v>0.5112276229194723</v>
       </c>
       <c r="F5">
-        <v>0.4452414058434374</v>
+        <v>0.5167277599932101</v>
       </c>
       <c r="G5">
-        <v>0.4452414058434374</v>
+        <v>0.5167277599932101</v>
       </c>
       <c r="H5">
-        <v>0.5110966029231792</v>
+        <v>0.5743047936739187</v>
       </c>
       <c r="I5">
-        <v>0.5110966029231792</v>
+        <v>0.5743047936739187</v>
       </c>
       <c r="J5">
-        <v>0.5124552126045993</v>
+        <v>0.5743047936739187</v>
       </c>
       <c r="K5">
-        <v>0.5209097369536577</v>
+        <v>0.5743047936739187</v>
       </c>
       <c r="L5">
-        <v>0.5209097369536577</v>
+        <v>0.5743047936739187</v>
       </c>
       <c r="M5">
-        <v>0.5209097369536577</v>
+        <v>0.5743047936739187</v>
       </c>
       <c r="N5">
-        <v>0.5662668963488851</v>
+        <v>0.6034121259839288</v>
       </c>
       <c r="O5">
-        <v>0.6308706566904791</v>
+        <v>0.6592510405935469</v>
       </c>
       <c r="P5">
-        <v>0.6308706566904791</v>
+        <v>0.6592510405935469</v>
       </c>
       <c r="Q5">
-        <v>0.7591729624534429</v>
+        <v>0.8035607929392223</v>
       </c>
       <c r="R5">
-        <v>0.7648602854870419</v>
+        <v>0.8035607929392223</v>
       </c>
       <c r="S5">
-        <v>0.8164551840361696</v>
+        <v>0.8413317141094488</v>
       </c>
       <c r="T5">
-        <v>0.9550955596603138</v>
+        <v>1</v>
       </c>
       <c r="U5">
-        <v>0.9750298324379919</v>
+        <v>1</v>
       </c>
       <c r="V5">
-        <v>0.9750298324379919</v>
+        <v>1</v>
       </c>
       <c r="W5">
-        <v>0.979118470290906</v>
+        <v>1</v>
       </c>
       <c r="X5">
-        <v>0.9809567760561566</v>
+        <v>1</v>
       </c>
       <c r="Y5">
-        <v>0.9809567760561566</v>
+        <v>1</v>
       </c>
       <c r="Z5">
-        <v>0.9809567760561566</v>
+        <v>1</v>
       </c>
       <c r="AA5">
-        <v>0.9809567760561566</v>
+        <v>1</v>
       </c>
       <c r="AB5">
-        <v>0.9809567760561566</v>
+        <v>1</v>
       </c>
       <c r="AC5">
-        <v>0.9809567760561566</v>
+        <v>1</v>
       </c>
       <c r="AD5">
-        <v>0.9809567760561566</v>
+        <v>1</v>
       </c>
       <c r="AE5">
-        <v>0.9809567760561566</v>
+        <v>1</v>
       </c>
       <c r="AF5">
-        <v>0.9809567760561566</v>
+        <v>1</v>
       </c>
       <c r="AG5">
-        <v>0.9809567760561566</v>
+        <v>1</v>
       </c>
       <c r="AH5">
-        <v>0.9809567760561566</v>
+        <v>1</v>
       </c>
       <c r="AI5">
         <v>1</v>
@@ -2352,82 +2352,82 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2451825388406494</v>
+        <v>0.339304990416008</v>
       </c>
       <c r="E6">
-        <v>0.2540692078625508</v>
+        <v>0.339304990416008</v>
       </c>
       <c r="F6">
-        <v>0.4208361081133423</v>
+        <v>0.5567189809565909</v>
       </c>
       <c r="G6">
-        <v>0.4208361081133423</v>
+        <v>0.5567189809565909</v>
       </c>
       <c r="H6">
-        <v>0.4758647546922753</v>
+        <v>0.6004445630454662</v>
       </c>
       <c r="I6">
-        <v>0.5023347812783518</v>
+        <v>0.6004445630454662</v>
       </c>
       <c r="J6">
-        <v>0.5023347812783518</v>
+        <v>0.6004445630454662</v>
       </c>
       <c r="K6">
-        <v>0.544762367657616</v>
+        <v>0.6245827789552346</v>
       </c>
       <c r="L6">
-        <v>0.544762367657616</v>
+        <v>0.6245827789552346</v>
       </c>
       <c r="M6">
-        <v>0.544762367657616</v>
+        <v>0.6245827789552346</v>
       </c>
       <c r="N6">
-        <v>0.5733685204287107</v>
+        <v>0.6272366533164604</v>
       </c>
       <c r="O6">
-        <v>0.6242427271915131</v>
+        <v>0.6645044824339031</v>
       </c>
       <c r="P6">
-        <v>0.692597021224165</v>
+        <v>0.7289437451269341</v>
       </c>
       <c r="Q6">
-        <v>0.7500302808253676</v>
+        <v>0.776407110786392</v>
       </c>
       <c r="R6">
-        <v>0.7618992484996675</v>
+        <v>0.776407110786392</v>
       </c>
       <c r="S6">
-        <v>0.8921730389269756</v>
+        <v>0.9370954057267173</v>
       </c>
       <c r="T6">
-        <v>0.9335318318013813</v>
+        <v>0.959572265415835</v>
       </c>
       <c r="U6">
-        <v>0.9864388876285926</v>
+        <v>1</v>
       </c>
       <c r="V6">
-        <v>0.9864388876285926</v>
+        <v>1</v>
       </c>
       <c r="W6">
-        <v>0.9864388876285926</v>
+        <v>1</v>
       </c>
       <c r="X6">
-        <v>0.9960695692323541</v>
+        <v>1</v>
       </c>
       <c r="Y6">
-        <v>0.9960695692323541</v>
+        <v>1</v>
       </c>
       <c r="Z6">
-        <v>0.9963828230652561</v>
+        <v>1</v>
       </c>
       <c r="AA6">
-        <v>0.9963828230652561</v>
+        <v>1</v>
       </c>
       <c r="AB6">
-        <v>0.9963828230652561</v>
+        <v>1</v>
       </c>
       <c r="AC6">
-        <v>0.9963828230652561</v>
+        <v>1</v>
       </c>
       <c r="AD6">
         <v>1</v>
@@ -2462,103 +2462,103 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.3122396859037459</v>
+        <v>0.403857399104653</v>
       </c>
       <c r="E7">
-        <v>0.3759904668943993</v>
+        <v>0.4586127129247557</v>
       </c>
       <c r="F7">
-        <v>0.6132164630347395</v>
+        <v>0.7570833724063574</v>
       </c>
       <c r="G7">
-        <v>0.6132164630347395</v>
+        <v>0.7570833724063574</v>
       </c>
       <c r="H7">
-        <v>0.6132164630347395</v>
+        <v>0.7570833724063574</v>
       </c>
       <c r="I7">
-        <v>0.7034937670368444</v>
+        <v>0.8491058008362053</v>
       </c>
       <c r="J7">
-        <v>0.7034937670368444</v>
+        <v>0.8491058008362053</v>
       </c>
       <c r="K7">
-        <v>0.7034937670368444</v>
+        <v>0.8491058008362053</v>
       </c>
       <c r="L7">
-        <v>0.7061981413196109</v>
+        <v>0.8491058008362053</v>
       </c>
       <c r="M7">
-        <v>0.7061981413196109</v>
+        <v>0.8491058008362053</v>
       </c>
       <c r="N7">
-        <v>0.7327526088823544</v>
+        <v>0.851604010512674</v>
       </c>
       <c r="O7">
-        <v>0.8070122695510847</v>
+        <v>0.9211232503555671</v>
       </c>
       <c r="P7">
-        <v>0.8070122695510847</v>
+        <v>0.9211232503555671</v>
       </c>
       <c r="Q7">
-        <v>0.8070122695510847</v>
+        <v>0.9211232503555671</v>
       </c>
       <c r="R7">
-        <v>0.8070122695510847</v>
+        <v>0.9211232503555671</v>
       </c>
       <c r="S7">
-        <v>0.8084106958956291</v>
+        <v>0.9211232503555671</v>
       </c>
       <c r="T7">
-        <v>0.836497061877933</v>
+        <v>0.9257736242620632</v>
       </c>
       <c r="U7">
-        <v>0.836497061877933</v>
+        <v>0.9257736242620632</v>
       </c>
       <c r="V7">
-        <v>0.8415206099316986</v>
+        <v>0.9257736242620632</v>
       </c>
       <c r="W7">
-        <v>0.8415206099316986</v>
+        <v>0.9257736242620632</v>
       </c>
       <c r="X7">
-        <v>0.8974660042353846</v>
+        <v>0.9695631496103401</v>
       </c>
       <c r="Y7">
-        <v>0.8974660042353846</v>
+        <v>0.9695631496103401</v>
       </c>
       <c r="Z7">
-        <v>0.9393567259608836</v>
+        <v>0.9936072641655167</v>
       </c>
       <c r="AA7">
-        <v>0.9393567259608836</v>
+        <v>0.9936072641655167</v>
       </c>
       <c r="AB7">
-        <v>0.9410879899279041</v>
+        <v>0.9936072641655167</v>
       </c>
       <c r="AC7">
-        <v>0.9484298855853514</v>
+        <v>0.9936072641655167</v>
       </c>
       <c r="AD7">
-        <v>0.9777564550087057</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AE7">
-        <v>0.9777564550087057</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AF7">
-        <v>0.9777564550087057</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AG7">
-        <v>0.9800862046284777</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH7">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ7">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:36">
@@ -2572,103 +2572,103 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2812869786318517</v>
+        <v>0.3428965552404915</v>
       </c>
       <c r="E8">
-        <v>0.4031014622468409</v>
+        <v>0.4749630982629218</v>
       </c>
       <c r="F8">
-        <v>0.4930789383704699</v>
+        <v>0.5649396452789549</v>
       </c>
       <c r="G8">
-        <v>0.4930789383704699</v>
+        <v>0.5649396452789549</v>
       </c>
       <c r="H8">
-        <v>0.5304303645552799</v>
+        <v>0.5853421209141125</v>
       </c>
       <c r="I8">
-        <v>0.5904990030849906</v>
+        <v>0.6357778016842952</v>
       </c>
       <c r="J8">
-        <v>0.5904990030849906</v>
+        <v>0.6357778016842952</v>
       </c>
       <c r="K8">
-        <v>0.5904990030849906</v>
+        <v>0.6357778016842952</v>
       </c>
       <c r="L8">
-        <v>0.5904990030849906</v>
+        <v>0.6357778016842952</v>
       </c>
       <c r="M8">
-        <v>0.60197757402618</v>
+        <v>0.6357778016842952</v>
       </c>
       <c r="N8">
-        <v>0.7477601979083537</v>
+        <v>0.7995313343963293</v>
       </c>
       <c r="O8">
-        <v>0.8210367351828182</v>
+        <v>0.8674284680235511</v>
       </c>
       <c r="P8">
-        <v>0.8210367351828182</v>
+        <v>0.8674284680235511</v>
       </c>
       <c r="Q8">
-        <v>0.835901127839904</v>
+        <v>0.8674284680235511</v>
       </c>
       <c r="R8">
-        <v>0.835901127839904</v>
+        <v>0.8674284680235511</v>
       </c>
       <c r="S8">
-        <v>0.9102747774904856</v>
+        <v>0.9367760349410835</v>
       </c>
       <c r="T8">
-        <v>0.9800165151252703</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="U8">
-        <v>0.9831898067199141</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="V8">
-        <v>0.9831898067199141</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="W8">
-        <v>0.9859540370884264</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="X8">
-        <v>0.9895458980295694</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="Y8">
-        <v>0.9895458980295694</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="Z8">
-        <v>0.9895458980295694</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AA8">
-        <v>0.9895458980295694</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AB8">
-        <v>0.9895458980295694</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AC8">
-        <v>0.9895458980295694</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AD8">
-        <v>0.9956109610675449</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AE8">
-        <v>0.9956109610675449</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AF8">
-        <v>0.9956109610675449</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AG8">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AH8">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AJ8">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:36">
@@ -2682,97 +2682,97 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.3838885392138564</v>
+        <v>0.4947842807389123</v>
       </c>
       <c r="E9">
-        <v>0.4823263347801685</v>
+        <v>0.5990362708130279</v>
       </c>
       <c r="F9">
-        <v>0.6258388250757049</v>
+        <v>0.7649560763522016</v>
       </c>
       <c r="G9">
-        <v>0.6258388250757049</v>
+        <v>0.7649560763522016</v>
       </c>
       <c r="H9">
-        <v>0.6310541505009756</v>
+        <v>0.7649560763522016</v>
       </c>
       <c r="I9">
-        <v>0.733261586811469</v>
+        <v>0.8743654060639612</v>
       </c>
       <c r="J9">
-        <v>0.733261586811469</v>
+        <v>0.8743654060639612</v>
       </c>
       <c r="K9">
-        <v>0.733261586811469</v>
+        <v>0.8743654060639612</v>
       </c>
       <c r="L9">
-        <v>0.733261586811469</v>
+        <v>0.8743654060639612</v>
       </c>
       <c r="M9">
-        <v>0.7455609243309093</v>
+        <v>0.8743654060639612</v>
       </c>
       <c r="N9">
-        <v>0.7810086995687399</v>
+        <v>0.8924391763388736</v>
       </c>
       <c r="O9">
-        <v>0.8276344278183624</v>
+        <v>0.9258057832652421</v>
       </c>
       <c r="P9">
-        <v>0.8276344278183624</v>
+        <v>0.9258057832652421</v>
       </c>
       <c r="Q9">
-        <v>0.8722506913168905</v>
+        <v>0.9564231912852521</v>
       </c>
       <c r="R9">
-        <v>0.8722506913168905</v>
+        <v>0.9564231912852521</v>
       </c>
       <c r="S9">
-        <v>0.8961143874094374</v>
+        <v>0.95864849360369</v>
       </c>
       <c r="T9">
-        <v>0.9485764973005517</v>
+        <v>1</v>
       </c>
       <c r="U9">
-        <v>0.9485764973005517</v>
+        <v>1</v>
       </c>
       <c r="V9">
-        <v>0.9485764973005517</v>
+        <v>1</v>
       </c>
       <c r="W9">
-        <v>0.9485764973005517</v>
+        <v>1</v>
       </c>
       <c r="X9">
-        <v>0.9562555875944686</v>
+        <v>1</v>
       </c>
       <c r="Y9">
-        <v>0.9746793782664745</v>
+        <v>1</v>
       </c>
       <c r="Z9">
-        <v>0.9786623915499723</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>0.9786623915499723</v>
+        <v>1</v>
       </c>
       <c r="AB9">
-        <v>0.9786623915499723</v>
+        <v>1</v>
       </c>
       <c r="AC9">
-        <v>0.9786623915499723</v>
+        <v>1</v>
       </c>
       <c r="AD9">
-        <v>0.9986862094041105</v>
+        <v>1</v>
       </c>
       <c r="AE9">
-        <v>0.9986862094041105</v>
+        <v>1</v>
       </c>
       <c r="AF9">
-        <v>0.9986862094041105</v>
+        <v>1</v>
       </c>
       <c r="AG9">
-        <v>0.9986862094041105</v>
+        <v>1</v>
       </c>
       <c r="AH9">
-        <v>0.9986862094041105</v>
+        <v>1</v>
       </c>
       <c r="AI9">
         <v>1</v>
@@ -2795,100 +2795,100 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1207714179212137</v>
+        <v>0.1473454013325298</v>
       </c>
       <c r="F10">
-        <v>0.1207714179212137</v>
+        <v>0.1473454013325298</v>
       </c>
       <c r="G10">
-        <v>0.4415357511026589</v>
+        <v>0.6037765577223088</v>
       </c>
       <c r="H10">
-        <v>0.4415357511026589</v>
+        <v>0.6037765577223088</v>
       </c>
       <c r="I10">
-        <v>0.4415357511026589</v>
+        <v>0.6037765577223088</v>
       </c>
       <c r="J10">
-        <v>0.5108693384433696</v>
+        <v>0.6716256394837468</v>
       </c>
       <c r="K10">
-        <v>0.5108693384433696</v>
+        <v>0.6716256394837468</v>
       </c>
       <c r="L10">
-        <v>0.513385859029952</v>
+        <v>0.6716256394837468</v>
       </c>
       <c r="M10">
-        <v>0.513385859029952</v>
+        <v>0.6716256394837468</v>
       </c>
       <c r="N10">
-        <v>0.569139421459641</v>
+        <v>0.7184870165164561</v>
       </c>
       <c r="O10">
-        <v>0.6179950639795069</v>
+        <v>0.7546877719922572</v>
       </c>
       <c r="P10">
-        <v>0.740752447595874</v>
+        <v>0.9051024505819617</v>
       </c>
       <c r="Q10">
-        <v>0.761388213708</v>
+        <v>0.9051024505819617</v>
       </c>
       <c r="R10">
-        <v>0.761388213708</v>
+        <v>0.9051024505819617</v>
       </c>
       <c r="S10">
-        <v>0.761388213708</v>
+        <v>0.9051024505819617</v>
       </c>
       <c r="T10">
-        <v>0.7890395613118103</v>
+        <v>0.9085323176687535</v>
       </c>
       <c r="U10">
-        <v>0.7890395613118103</v>
+        <v>0.9085323176687535</v>
       </c>
       <c r="V10">
-        <v>0.8142454404473233</v>
+        <v>0.9085323176687535</v>
       </c>
       <c r="W10">
-        <v>0.8142454404473233</v>
+        <v>0.9085323176687535</v>
       </c>
       <c r="X10">
-        <v>0.8142454404473233</v>
+        <v>0.9085323176687535</v>
       </c>
       <c r="Y10">
-        <v>0.8629760908401384</v>
+        <v>0.9445398998718144</v>
       </c>
       <c r="Z10">
-        <v>0.8629760908401384</v>
+        <v>0.9445398998718144</v>
       </c>
       <c r="AA10">
-        <v>0.8970832955245104</v>
+        <v>0.9579471876971895</v>
       </c>
       <c r="AB10">
-        <v>0.8970832955245104</v>
+        <v>0.9579471876971895</v>
       </c>
       <c r="AC10">
-        <v>0.8970832955245104</v>
+        <v>0.9579471876971895</v>
       </c>
       <c r="AD10">
-        <v>0.8970832955245104</v>
+        <v>0.9579471876971895</v>
       </c>
       <c r="AE10">
-        <v>0.9362163698294884</v>
+        <v>0.9791218742050777</v>
       </c>
       <c r="AF10">
-        <v>0.9513779985581027</v>
+        <v>0.9791218742050777</v>
       </c>
       <c r="AG10">
-        <v>0.9513779985581027</v>
+        <v>0.9791218742050777</v>
       </c>
       <c r="AH10">
-        <v>0.9610588143232334</v>
+        <v>0.9791218742050777</v>
       </c>
       <c r="AI10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AJ10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:36">
@@ -2905,100 +2905,100 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.3628814293242403</v>
+        <v>0.491831792752265</v>
       </c>
       <c r="F11">
-        <v>0.5013625105551911</v>
+        <v>0.6556519938092349</v>
       </c>
       <c r="G11">
-        <v>0.5549556620699504</v>
+        <v>0.695389388495732</v>
       </c>
       <c r="H11">
-        <v>0.5549556620699504</v>
+        <v>0.695389388495732</v>
       </c>
       <c r="I11">
-        <v>0.5705293602771225</v>
+        <v>0.695389388495732</v>
       </c>
       <c r="J11">
-        <v>0.6464228770920938</v>
+        <v>0.767723783942977</v>
       </c>
       <c r="K11">
-        <v>0.6684372559652667</v>
+        <v>0.767723783942977</v>
       </c>
       <c r="L11">
-        <v>0.6684372559652667</v>
+        <v>0.767723783942977</v>
       </c>
       <c r="M11">
-        <v>0.6684372559652667</v>
+        <v>0.767723783942977</v>
       </c>
       <c r="N11">
-        <v>0.6684372559652667</v>
+        <v>0.767723783942977</v>
       </c>
       <c r="O11">
-        <v>0.7051465174021708</v>
+        <v>0.7827815749412333</v>
       </c>
       <c r="P11">
-        <v>0.7742076490192615</v>
+        <v>0.8451289023519329</v>
       </c>
       <c r="Q11">
-        <v>0.7742076490192615</v>
+        <v>0.8451289023519329</v>
       </c>
       <c r="R11">
-        <v>0.8444982519624524</v>
+        <v>0.9092733786977588</v>
       </c>
       <c r="S11">
-        <v>0.8444982519624524</v>
+        <v>0.9092733786977588</v>
       </c>
       <c r="T11">
-        <v>0.8444982519624524</v>
+        <v>0.9092733786977588</v>
       </c>
       <c r="U11">
-        <v>0.9329743176524203</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="V11">
-        <v>0.9329743176524203</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="W11">
-        <v>0.9329743176524203</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="X11">
-        <v>0.9407696049336154</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="Y11">
-        <v>0.9452499494532428</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="Z11">
-        <v>0.9634172982454192</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AA11">
-        <v>0.9634172982454192</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AB11">
-        <v>0.9634172982454192</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AC11">
-        <v>0.9634172982454192</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AD11">
-        <v>0.9634172982454192</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AE11">
-        <v>0.9765231659472489</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AF11">
-        <v>0.9765231659472489</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AG11">
-        <v>0.9765231659472489</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH11">
-        <v>0.9765231659472489</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI11">
-        <v>0.9765231659472489</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ11">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -3060,34 +3060,34 @@
         <v>36</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>0.5</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.516287837649309</v>
       </c>
       <c r="F2">
-        <v>0.518819672504264</v>
+        <v>3</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>850</v>
       </c>
       <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2">
         <v>8</v>
-      </c>
-      <c r="I2">
-        <v>850</v>
-      </c>
-      <c r="J2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" t="s">
-        <v>59</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
@@ -3101,34 +3101,34 @@
         <v>37</v>
       </c>
       <c r="B3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>0.5</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.5301035620104129</v>
       </c>
       <c r="F3">
-        <v>0.5180496169267375</v>
+        <v>6</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>850</v>
       </c>
       <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3">
         <v>8</v>
-      </c>
-      <c r="I3">
-        <v>850</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
       </c>
       <c r="L3" t="s">
         <v>60</v>
@@ -3142,34 +3142,34 @@
         <v>38</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0.5</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
+      <c r="E4">
+        <v>0.5455672885056381</v>
+      </c>
+      <c r="F4">
         <v>9</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.5252797549626481</v>
-      </c>
       <c r="G4">
-        <v>8</v>
+        <v>850</v>
       </c>
       <c r="H4">
         <v>8</v>
       </c>
-      <c r="I4">
-        <v>850</v>
+      <c r="I4" t="s">
+        <v>58</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
         <v>59</v>
+      </c>
+      <c r="K4">
+        <v>8</v>
       </c>
       <c r="L4" t="s">
         <v>60</v>
@@ -3183,34 +3183,34 @@
         <v>39</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>0.5</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>7</v>
-      </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.5112276229194723</v>
       </c>
       <c r="F5">
-        <v>0.5110966029231792</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>850</v>
       </c>
       <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5">
         <v>8</v>
-      </c>
-      <c r="I5">
-        <v>850</v>
-      </c>
-      <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" t="s">
-        <v>59</v>
       </c>
       <c r="L5" t="s">
         <v>60</v>
@@ -3224,34 +3224,34 @@
         <v>40</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>0.5</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
+      <c r="E6">
+        <v>0.5567189809565909</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>850</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6">
         <v>8</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.5023347812783518</v>
-      </c>
-      <c r="G6">
-        <v>7</v>
-      </c>
-      <c r="H6">
-        <v>8</v>
-      </c>
-      <c r="I6">
-        <v>850</v>
-      </c>
-      <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" t="s">
-        <v>59</v>
       </c>
       <c r="L6" t="s">
         <v>60</v>
@@ -3265,34 +3265,34 @@
         <v>41</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.5</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
+      <c r="E7">
+        <v>0.7570833724063574</v>
+      </c>
+      <c r="F7">
         <v>5</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.6132164630347395</v>
-      </c>
       <c r="G7">
+        <v>850</v>
+      </c>
+      <c r="H7">
         <v>4</v>
       </c>
-      <c r="H7">
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7">
         <v>8</v>
-      </c>
-      <c r="I7">
-        <v>850</v>
-      </c>
-      <c r="J7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" t="s">
-        <v>59</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
@@ -3306,34 +3306,34 @@
         <v>42</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.5</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>7</v>
-      </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.5649396452789549</v>
       </c>
       <c r="F8">
-        <v>0.5304303645552799</v>
+        <v>5</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>850</v>
       </c>
       <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8">
         <v>8</v>
-      </c>
-      <c r="I8">
-        <v>850</v>
-      </c>
-      <c r="J8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" t="s">
-        <v>59</v>
       </c>
       <c r="L8" t="s">
         <v>60</v>
@@ -3347,34 +3347,34 @@
         <v>43</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.5</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.5990362708130279</v>
       </c>
       <c r="F9">
-        <v>0.6258388250757049</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>850</v>
       </c>
       <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9">
         <v>8</v>
-      </c>
-      <c r="I9">
-        <v>850</v>
-      </c>
-      <c r="J9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" t="s">
-        <v>59</v>
       </c>
       <c r="L9" t="s">
         <v>60</v>
@@ -3388,34 +3388,34 @@
         <v>44</v>
       </c>
       <c r="B10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>0.5</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.6037765577223088</v>
       </c>
       <c r="F10">
-        <v>0.5108693384433696</v>
+        <v>6</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>850</v>
       </c>
       <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10">
         <v>8</v>
-      </c>
-      <c r="I10">
-        <v>850</v>
-      </c>
-      <c r="J10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" t="s">
-        <v>59</v>
       </c>
       <c r="L10" t="s">
         <v>60</v>
@@ -3429,34 +3429,34 @@
         <v>45</v>
       </c>
       <c r="B11">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
+        <v>0.5</v>
+      </c>
+      <c r="E11">
+        <v>0.6556519938092349</v>
+      </c>
+      <c r="F11">
         <v>5</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.5013625105551911</v>
-      </c>
       <c r="G11">
+        <v>850</v>
+      </c>
+      <c r="H11">
         <v>3</v>
       </c>
-      <c r="H11">
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11">
         <v>8</v>
-      </c>
-      <c r="I11">
-        <v>850</v>
-      </c>
-      <c r="J11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" t="s">
-        <v>59</v>
       </c>
       <c r="L11" t="s">
         <v>60</v>
@@ -3524,34 +3524,34 @@
         <v>36</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>0.7</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>14</v>
-      </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.7538964220290432</v>
       </c>
       <c r="F2">
-        <v>0.7126977287430325</v>
+        <v>5</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>850</v>
       </c>
       <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2">
         <v>8</v>
-      </c>
-      <c r="I2">
-        <v>850</v>
-      </c>
-      <c r="J2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" t="s">
-        <v>59</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
@@ -3565,34 +3565,34 @@
         <v>37</v>
       </c>
       <c r="B3">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
+        <v>0.7</v>
+      </c>
+      <c r="E3">
+        <v>0.8136108689251526</v>
+      </c>
+      <c r="F3">
         <v>16</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.7472749581346587</v>
-      </c>
       <c r="G3">
+        <v>850</v>
+      </c>
+      <c r="H3">
         <v>14</v>
       </c>
-      <c r="H3">
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3">
         <v>8</v>
-      </c>
-      <c r="I3">
-        <v>850</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
       </c>
       <c r="L3" t="s">
         <v>60</v>
@@ -3606,34 +3606,34 @@
         <v>38</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0.7</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
+      <c r="E4">
+        <v>0.8300841982798903</v>
+      </c>
+      <c r="F4">
         <v>16</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.8082153855456125</v>
-      </c>
       <c r="G4">
+        <v>850</v>
+      </c>
+      <c r="H4">
         <v>15</v>
       </c>
-      <c r="H4">
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4">
         <v>8</v>
-      </c>
-      <c r="I4">
-        <v>850</v>
-      </c>
-      <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
-        <v>59</v>
       </c>
       <c r="L4" t="s">
         <v>60</v>
@@ -3647,34 +3647,34 @@
         <v>39</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>0.7</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
+      <c r="E5">
+        <v>0.8035607929392223</v>
+      </c>
+      <c r="F5">
         <v>16</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.7591729624534429</v>
-      </c>
       <c r="G5">
+        <v>850</v>
+      </c>
+      <c r="H5">
         <v>15</v>
       </c>
-      <c r="H5">
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5">
         <v>8</v>
-      </c>
-      <c r="I5">
-        <v>850</v>
-      </c>
-      <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" t="s">
-        <v>59</v>
       </c>
       <c r="L5" t="s">
         <v>60</v>
@@ -3688,34 +3688,34 @@
         <v>40</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>0.7</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>16</v>
-      </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.7289437451269341</v>
       </c>
       <c r="F6">
-        <v>0.7500302808253676</v>
+        <v>15</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>850</v>
       </c>
       <c r="H6">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6">
         <v>8</v>
-      </c>
-      <c r="I6">
-        <v>850</v>
-      </c>
-      <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" t="s">
-        <v>59</v>
       </c>
       <c r="L6" t="s">
         <v>60</v>
@@ -3729,34 +3729,34 @@
         <v>41</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.7</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
+      <c r="E7">
+        <v>0.7570833724063574</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>850</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7">
         <v>8</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.7034937670368444</v>
-      </c>
-      <c r="G7">
-        <v>7</v>
-      </c>
-      <c r="H7">
-        <v>8</v>
-      </c>
-      <c r="I7">
-        <v>850</v>
-      </c>
-      <c r="J7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" t="s">
-        <v>59</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
@@ -3770,34 +3770,34 @@
         <v>42</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.7</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
+      <c r="E8">
+        <v>0.7995313343963293</v>
+      </c>
+      <c r="F8">
         <v>13</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.7477601979083537</v>
-      </c>
       <c r="G8">
+        <v>850</v>
+      </c>
+      <c r="H8">
         <v>12</v>
       </c>
-      <c r="H8">
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8">
         <v>8</v>
-      </c>
-      <c r="I8">
-        <v>850</v>
-      </c>
-      <c r="J8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" t="s">
-        <v>59</v>
       </c>
       <c r="L8" t="s">
         <v>60</v>
@@ -3811,34 +3811,34 @@
         <v>43</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.7</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
+      <c r="E9">
+        <v>0.7649560763522016</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>850</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9">
         <v>8</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.733261586811469</v>
-      </c>
-      <c r="G9">
-        <v>7</v>
-      </c>
-      <c r="H9">
-        <v>8</v>
-      </c>
-      <c r="I9">
-        <v>850</v>
-      </c>
-      <c r="J9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" t="s">
-        <v>59</v>
       </c>
       <c r="L9" t="s">
         <v>60</v>
@@ -3852,34 +3852,34 @@
         <v>44</v>
       </c>
       <c r="B10">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>0.7</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.7184870165164561</v>
       </c>
       <c r="F10">
-        <v>0.740752447595874</v>
+        <v>13</v>
       </c>
       <c r="G10">
-        <v>13</v>
+        <v>850</v>
       </c>
       <c r="H10">
+        <v>11</v>
+      </c>
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10">
         <v>8</v>
-      </c>
-      <c r="I10">
-        <v>850</v>
-      </c>
-      <c r="J10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" t="s">
-        <v>59</v>
       </c>
       <c r="L10" t="s">
         <v>60</v>
@@ -3893,34 +3893,34 @@
         <v>45</v>
       </c>
       <c r="B11">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
-        <v>14</v>
+        <v>0.7</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.767723783942977</v>
       </c>
       <c r="F11">
-        <v>0.7051465174021708</v>
+        <v>9</v>
       </c>
       <c r="G11">
-        <v>12</v>
+        <v>850</v>
       </c>
       <c r="H11">
+        <v>7</v>
+      </c>
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11">
         <v>8</v>
-      </c>
-      <c r="I11">
-        <v>850</v>
-      </c>
-      <c r="J11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" t="s">
-        <v>59</v>
       </c>
       <c r="L11" t="s">
         <v>60</v>
@@ -3988,34 +3988,34 @@
         <v>36</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>0.8</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>19</v>
-      </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.8724652877860437</v>
       </c>
       <c r="F2">
-        <v>0.8472787855603432</v>
+        <v>14</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>850</v>
       </c>
       <c r="H2">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2">
         <v>8</v>
-      </c>
-      <c r="I2">
-        <v>850</v>
-      </c>
-      <c r="J2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" t="s">
-        <v>59</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
@@ -4029,34 +4029,34 @@
         <v>37</v>
       </c>
       <c r="B3">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>0.8</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.8136108689251526</v>
       </c>
       <c r="F3">
-        <v>0.890085246877963</v>
+        <v>16</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>850</v>
       </c>
       <c r="H3">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3">
         <v>8</v>
-      </c>
-      <c r="I3">
-        <v>850</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
       </c>
       <c r="L3" t="s">
         <v>60</v>
@@ -4070,34 +4070,34 @@
         <v>38</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0.8</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
+      <c r="E4">
+        <v>0.8300841982798903</v>
+      </c>
+      <c r="F4">
         <v>16</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.8082153855456125</v>
-      </c>
       <c r="G4">
+        <v>850</v>
+      </c>
+      <c r="H4">
         <v>15</v>
       </c>
-      <c r="H4">
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4">
         <v>8</v>
-      </c>
-      <c r="I4">
-        <v>850</v>
-      </c>
-      <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
-        <v>59</v>
       </c>
       <c r="L4" t="s">
         <v>60</v>
@@ -4111,34 +4111,34 @@
         <v>39</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>0.8</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>18</v>
-      </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.8035607929392223</v>
       </c>
       <c r="F5">
-        <v>0.8164551840361696</v>
+        <v>16</v>
       </c>
       <c r="G5">
-        <v>17</v>
+        <v>850</v>
       </c>
       <c r="H5">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5">
         <v>8</v>
-      </c>
-      <c r="I5">
-        <v>850</v>
-      </c>
-      <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" t="s">
-        <v>59</v>
       </c>
       <c r="L5" t="s">
         <v>60</v>
@@ -4152,34 +4152,34 @@
         <v>40</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>0.8</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
+      <c r="E6">
+        <v>0.9370954057267173</v>
+      </c>
+      <c r="F6">
         <v>18</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.8921730389269756</v>
-      </c>
       <c r="G6">
+        <v>850</v>
+      </c>
+      <c r="H6">
         <v>17</v>
       </c>
-      <c r="H6">
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6">
         <v>8</v>
-      </c>
-      <c r="I6">
-        <v>850</v>
-      </c>
-      <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" t="s">
-        <v>59</v>
       </c>
       <c r="L6" t="s">
         <v>60</v>
@@ -4193,34 +4193,34 @@
         <v>41</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.8</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>14</v>
-      </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.8491058008362053</v>
       </c>
       <c r="F7">
-        <v>0.8070122695510847</v>
+        <v>8</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>850</v>
       </c>
       <c r="H7">
+        <v>7</v>
+      </c>
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7">
         <v>8</v>
-      </c>
-      <c r="I7">
-        <v>850</v>
-      </c>
-      <c r="J7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" t="s">
-        <v>59</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
@@ -4234,34 +4234,34 @@
         <v>42</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.8</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
+      <c r="E8">
+        <v>0.8674284680235511</v>
+      </c>
+      <c r="F8">
         <v>14</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.8210367351828182</v>
-      </c>
       <c r="G8">
+        <v>850</v>
+      </c>
+      <c r="H8">
         <v>13</v>
       </c>
-      <c r="H8">
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8">
         <v>8</v>
-      </c>
-      <c r="I8">
-        <v>850</v>
-      </c>
-      <c r="J8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" t="s">
-        <v>59</v>
       </c>
       <c r="L8" t="s">
         <v>60</v>
@@ -4275,34 +4275,34 @@
         <v>43</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.8</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>14</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.8743654060639612</v>
       </c>
       <c r="F9">
-        <v>0.8276344278183624</v>
+        <v>8</v>
       </c>
       <c r="G9">
-        <v>13</v>
+        <v>850</v>
       </c>
       <c r="H9">
+        <v>7</v>
+      </c>
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9">
         <v>8</v>
-      </c>
-      <c r="I9">
-        <v>850</v>
-      </c>
-      <c r="J9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" t="s">
-        <v>59</v>
       </c>
       <c r="L9" t="s">
         <v>60</v>
@@ -4316,34 +4316,34 @@
         <v>44</v>
       </c>
       <c r="B10">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
-        <v>21</v>
+        <v>0.8</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.9051024505819617</v>
       </c>
       <c r="F10">
-        <v>0.8142454404473233</v>
+        <v>15</v>
       </c>
       <c r="G10">
-        <v>19</v>
+        <v>850</v>
       </c>
       <c r="H10">
+        <v>13</v>
+      </c>
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10">
         <v>8</v>
-      </c>
-      <c r="I10">
-        <v>850</v>
-      </c>
-      <c r="J10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" t="s">
-        <v>59</v>
       </c>
       <c r="L10" t="s">
         <v>60</v>
@@ -4357,34 +4357,34 @@
         <v>45</v>
       </c>
       <c r="B11">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
-        <v>17</v>
+        <v>0.8</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.8451289023519329</v>
       </c>
       <c r="F11">
-        <v>0.8444982519624524</v>
+        <v>15</v>
       </c>
       <c r="G11">
-        <v>15</v>
+        <v>850</v>
       </c>
       <c r="H11">
+        <v>13</v>
+      </c>
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11">
         <v>8</v>
-      </c>
-      <c r="I11">
-        <v>850</v>
-      </c>
-      <c r="J11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" t="s">
-        <v>59</v>
       </c>
       <c r="L11" t="s">
         <v>60</v>
@@ -4452,34 +4452,34 @@
         <v>36</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>0.9</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>23</v>
-      </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.986484619632138</v>
       </c>
       <c r="F2">
-        <v>0.9005530081614894</v>
+        <v>19</v>
       </c>
       <c r="G2">
-        <v>22</v>
+        <v>850</v>
       </c>
       <c r="H2">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2">
         <v>8</v>
-      </c>
-      <c r="I2">
-        <v>850</v>
-      </c>
-      <c r="J2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" t="s">
-        <v>59</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
@@ -4493,34 +4493,34 @@
         <v>37</v>
       </c>
       <c r="B3">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>0.9</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.940712837492256</v>
       </c>
       <c r="F3">
-        <v>0.9555140279146046</v>
+        <v>19</v>
       </c>
       <c r="G3">
-        <v>19</v>
+        <v>850</v>
       </c>
       <c r="H3">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3">
         <v>8</v>
-      </c>
-      <c r="I3">
-        <v>850</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
       </c>
       <c r="L3" t="s">
         <v>60</v>
@@ -4534,34 +4534,34 @@
         <v>38</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0.9</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
         <v>19</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.978451742727013</v>
-      </c>
       <c r="G4">
+        <v>850</v>
+      </c>
+      <c r="H4">
         <v>18</v>
       </c>
-      <c r="H4">
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4">
         <v>8</v>
-      </c>
-      <c r="I4">
-        <v>850</v>
-      </c>
-      <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
-        <v>59</v>
       </c>
       <c r="L4" t="s">
         <v>60</v>
@@ -4575,34 +4575,34 @@
         <v>39</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>0.9</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
         <v>19</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.9550955596603138</v>
-      </c>
       <c r="G5">
+        <v>850</v>
+      </c>
+      <c r="H5">
         <v>18</v>
       </c>
-      <c r="H5">
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5">
         <v>8</v>
-      </c>
-      <c r="I5">
-        <v>850</v>
-      </c>
-      <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" t="s">
-        <v>59</v>
       </c>
       <c r="L5" t="s">
         <v>60</v>
@@ -4616,34 +4616,34 @@
         <v>40</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>0.9</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>19</v>
-      </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.9370954057267173</v>
       </c>
       <c r="F6">
-        <v>0.9335318318013813</v>
+        <v>18</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>850</v>
       </c>
       <c r="H6">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6">
         <v>8</v>
-      </c>
-      <c r="I6">
-        <v>850</v>
-      </c>
-      <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" t="s">
-        <v>59</v>
       </c>
       <c r="L6" t="s">
         <v>60</v>
@@ -4657,34 +4657,34 @@
         <v>41</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.9</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>25</v>
-      </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.9211232503555671</v>
       </c>
       <c r="F7">
-        <v>0.9393567259608836</v>
+        <v>14</v>
       </c>
       <c r="G7">
-        <v>24</v>
+        <v>850</v>
       </c>
       <c r="H7">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7">
         <v>8</v>
-      </c>
-      <c r="I7">
-        <v>850</v>
-      </c>
-      <c r="J7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" t="s">
-        <v>59</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
@@ -4698,34 +4698,34 @@
         <v>42</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.9</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
+      <c r="E8">
+        <v>0.9367760349410835</v>
+      </c>
+      <c r="F8">
         <v>18</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.9102747774904856</v>
-      </c>
       <c r="G8">
+        <v>850</v>
+      </c>
+      <c r="H8">
         <v>17</v>
       </c>
-      <c r="H8">
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8">
         <v>8</v>
-      </c>
-      <c r="I8">
-        <v>850</v>
-      </c>
-      <c r="J8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" t="s">
-        <v>59</v>
       </c>
       <c r="L8" t="s">
         <v>60</v>
@@ -4739,34 +4739,34 @@
         <v>43</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.9</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>19</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.9258057832652421</v>
       </c>
       <c r="F9">
-        <v>0.9485764973005517</v>
+        <v>14</v>
       </c>
       <c r="G9">
-        <v>18</v>
+        <v>850</v>
       </c>
       <c r="H9">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9">
         <v>8</v>
-      </c>
-      <c r="I9">
-        <v>850</v>
-      </c>
-      <c r="J9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" t="s">
-        <v>59</v>
       </c>
       <c r="L9" t="s">
         <v>60</v>
@@ -4780,34 +4780,34 @@
         <v>44</v>
       </c>
       <c r="B10">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
-        <v>30</v>
+        <v>0.9</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.9051024505819617</v>
       </c>
       <c r="F10">
-        <v>0.9362163698294884</v>
+        <v>15</v>
       </c>
       <c r="G10">
-        <v>28</v>
+        <v>850</v>
       </c>
       <c r="H10">
+        <v>13</v>
+      </c>
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10">
         <v>8</v>
-      </c>
-      <c r="I10">
-        <v>850</v>
-      </c>
-      <c r="J10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" t="s">
-        <v>59</v>
       </c>
       <c r="L10" t="s">
         <v>60</v>
@@ -4821,34 +4821,34 @@
         <v>45</v>
       </c>
       <c r="B11">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>0.9</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.9092733786977588</v>
       </c>
       <c r="F11">
-        <v>0.9329743176524203</v>
+        <v>17</v>
       </c>
       <c r="G11">
-        <v>18</v>
+        <v>850</v>
       </c>
       <c r="H11">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11">
         <v>8</v>
-      </c>
-      <c r="I11">
-        <v>850</v>
-      </c>
-      <c r="J11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" t="s">
-        <v>59</v>
       </c>
       <c r="L11" t="s">
         <v>60</v>
